--- a/Avanzamento_schede_automated.xlsx
+++ b/Avanzamento_schede_automated.xlsx
@@ -805,6 +805,9 @@
       <c r="Y2" s="9" t="n">
         <v>45926</v>
       </c>
+      <c r="Z2" s="9" t="n">
+        <v>45926</v>
+      </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -849,6 +852,9 @@
       <c r="Y3" s="9" t="n">
         <v>45926</v>
       </c>
+      <c r="Z3" s="9" t="n">
+        <v>45926</v>
+      </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
@@ -918,6 +924,9 @@
       <c r="Y4" s="9" t="n">
         <v>45912</v>
       </c>
+      <c r="Z4" s="9" t="n">
+        <v>45926</v>
+      </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -999,6 +1008,9 @@
       <c r="Y5" s="9" t="n">
         <v>45800</v>
       </c>
+      <c r="Z5" s="9" t="n">
+        <v>45926</v>
+      </c>
     </row>
     <row r="6" ht="32.25" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
@@ -1042,6 +1054,9 @@
         <v>45924</v>
       </c>
       <c r="Y6" s="9" t="n">
+        <v>45924</v>
+      </c>
+      <c r="Z6" s="9" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -1107,6 +1122,9 @@
       <c r="Y7" s="9" t="n">
         <v>45926</v>
       </c>
+      <c r="Z7" s="9" t="n">
+        <v>45923</v>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="5" t="inlineStr">
@@ -1164,6 +1182,9 @@
       <c r="Y8" s="9" t="n">
         <v>45924</v>
       </c>
+      <c r="Z8" s="9" t="n">
+        <v>45922</v>
+      </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
@@ -1215,6 +1236,9 @@
       <c r="Y9" s="9" t="n">
         <v>45922</v>
       </c>
+      <c r="Z9" s="9" t="n">
+        <v>45922</v>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="5" t="inlineStr">
@@ -1258,6 +1282,9 @@
         <v>45922</v>
       </c>
       <c r="Y10" s="9" t="n">
+        <v>45922</v>
+      </c>
+      <c r="Z10" s="9" t="n">
         <v>45922</v>
       </c>
     </row>
@@ -1338,6 +1365,9 @@
       <c r="Y11" s="9" t="n">
         <v>45777</v>
       </c>
+      <c r="Z11" s="9" t="n">
+        <v>45922</v>
+      </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="5" t="inlineStr">
@@ -1404,6 +1434,9 @@
       </c>
       <c r="Y12" s="9" t="n">
         <v>45917</v>
+      </c>
+      <c r="Z12" s="9" t="n">
+        <v>45919</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
@@ -1486,6 +1519,9 @@
       <c r="Y13" s="9" t="n">
         <v>45845</v>
       </c>
+      <c r="Z13" s="9" t="n">
+        <v>45919</v>
+      </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="5" t="inlineStr">
@@ -1548,6 +1584,9 @@
       <c r="Y14" s="9" t="n">
         <v>45901</v>
       </c>
+      <c r="Z14" s="9" t="n">
+        <v>45918</v>
+      </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="5" t="inlineStr">
@@ -1609,6 +1648,9 @@
       </c>
       <c r="Y15" s="9" t="n">
         <v>45916</v>
+      </c>
+      <c r="Z15" s="9" t="n">
+        <v>45917</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
@@ -1679,6 +1721,9 @@
       <c r="Y16" s="9" t="n">
         <v>45915</v>
       </c>
+      <c r="Z16" s="9" t="n">
+        <v>45916</v>
+      </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="5" t="inlineStr">
@@ -1736,6 +1781,9 @@
       <c r="Y17" s="9" t="n">
         <v>45916</v>
       </c>
+      <c r="Z17" s="9" t="n">
+        <v>45916</v>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="5" t="inlineStr">
@@ -1796,6 +1844,9 @@
       <c r="Y18" s="9" t="n">
         <v>45919</v>
       </c>
+      <c r="Z18" s="9" t="n">
+        <v>45915</v>
+      </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="5" t="inlineStr">
@@ -1859,6 +1910,9 @@
       <c r="Y19" s="9" t="n">
         <v>45915</v>
       </c>
+      <c r="Z19" s="9" t="n">
+        <v>45933</v>
+      </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -1920,6 +1974,9 @@
       <c r="Y20" s="9" t="n">
         <v>45926</v>
       </c>
+      <c r="Z20" s="9" t="n">
+        <v>45915</v>
+      </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -1958,6 +2015,9 @@
       </c>
       <c r="Y21" s="9" t="n">
         <v>45916</v>
+      </c>
+      <c r="Z21" s="9" t="n">
+        <v>45915</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
@@ -2016,6 +2076,9 @@
       <c r="Y22" s="9" t="n">
         <v>45916</v>
       </c>
+      <c r="Z22" s="9" t="n">
+        <v>45915</v>
+      </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -2064,6 +2127,9 @@
       <c r="Y23" s="9" t="n">
         <v>45915</v>
       </c>
+      <c r="Z23" s="9" t="n">
+        <v>45915</v>
+      </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
@@ -2148,6 +2214,9 @@
       </c>
       <c r="Y24" s="9" t="n">
         <v>45908</v>
+      </c>
+      <c r="Z24" s="9" t="n">
+        <v>45912</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
@@ -2199,6 +2268,9 @@
       <c r="Y25" s="9" t="n">
         <v>45919</v>
       </c>
+      <c r="Z25" s="9" t="n">
+        <v>45911</v>
+      </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="inlineStr">
@@ -2256,6 +2328,9 @@
       <c r="Y26" s="9" t="n">
         <v>45912</v>
       </c>
+      <c r="Z26" s="9" t="n">
+        <v>45911</v>
+      </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="5" t="inlineStr">
@@ -2316,6 +2391,9 @@
         <v>45909</v>
       </c>
       <c r="Y27" s="9" t="n">
+        <v>45909</v>
+      </c>
+      <c r="Z27" s="9" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2384,6 +2462,9 @@
       <c r="Y28" s="9" t="n">
         <v>45784</v>
       </c>
+      <c r="Z28" s="9" t="n">
+        <v>45909</v>
+      </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="5" t="inlineStr">
@@ -2440,6 +2521,9 @@
       </c>
       <c r="Y29" s="9" t="n">
         <v>45895</v>
+      </c>
+      <c r="Z29" s="9" t="n">
+        <v>45909</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
@@ -2512,6 +2596,9 @@
       <c r="Y30" s="9" t="n">
         <v>45915</v>
       </c>
+      <c r="Z30" s="9" t="n">
+        <v>45909</v>
+      </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="5" t="inlineStr">
@@ -2577,6 +2664,9 @@
         <v>45909</v>
       </c>
       <c r="Y31" s="9" t="n">
+        <v>45909</v>
+      </c>
+      <c r="Z31" s="9" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2631,6 +2721,9 @@
       <c r="Y32" s="9" t="n">
         <v>45838</v>
       </c>
+      <c r="Z32" s="9" t="n">
+        <v>45909</v>
+      </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="5" t="inlineStr">
@@ -2696,6 +2789,9 @@
       <c r="Y33" s="9" t="n">
         <v>45908</v>
       </c>
+      <c r="Z33" s="9" t="n">
+        <v>45908</v>
+      </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="5" t="inlineStr">
@@ -2756,6 +2852,9 @@
       <c r="Y34" s="9" t="n">
         <v>45908</v>
       </c>
+      <c r="Z34" s="9" t="n">
+        <v>45908</v>
+      </c>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="5" t="inlineStr">
@@ -2815,6 +2914,9 @@
       <c r="Y35" s="9" t="n">
         <v>45908</v>
       </c>
+      <c r="Z35" s="9" t="n">
+        <v>45908</v>
+      </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="5" t="inlineStr">
@@ -2885,6 +2987,9 @@
       </c>
       <c r="Y36" s="9" t="n">
         <v>45912</v>
+      </c>
+      <c r="Z36" s="9" t="n">
+        <v>45937</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
@@ -2931,6 +3036,9 @@
       <c r="Y37" s="9" t="n">
         <v>45856</v>
       </c>
+      <c r="Z37" s="9" t="n">
+        <v>45898</v>
+      </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="5" t="inlineStr">
@@ -3015,6 +3123,9 @@
       </c>
       <c r="Y38" s="9" t="n">
         <v>45909</v>
+      </c>
+      <c r="Z38" s="9" t="n">
+        <v>45897</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
@@ -3088,6 +3199,9 @@
       <c r="Y39" s="9" t="n">
         <v>45897</v>
       </c>
+      <c r="Z39" s="9" t="n">
+        <v>45897</v>
+      </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="5" t="inlineStr">
@@ -3154,6 +3268,9 @@
       <c r="Y40" s="9" t="n">
         <v>45909</v>
       </c>
+      <c r="Z40" s="9" t="n">
+        <v>45897</v>
+      </c>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="5" t="inlineStr">
@@ -3208,6 +3325,9 @@
       <c r="Y41" s="9" t="n">
         <v>45902</v>
       </c>
+      <c r="Z41" s="9" t="n">
+        <v>45897</v>
+      </c>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="5" t="inlineStr">
@@ -3292,6 +3412,9 @@
       </c>
       <c r="Y42" s="9" t="n">
         <v>45908</v>
+      </c>
+      <c r="Z42" s="9" t="n">
+        <v>45897</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
@@ -3374,6 +3497,9 @@
       <c r="Y43" s="9" t="n">
         <v>45845</v>
       </c>
+      <c r="Z43" s="9" t="n">
+        <v>45863</v>
+      </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="5" t="inlineStr">
@@ -3443,6 +3569,9 @@
       <c r="Y44" s="9" t="n">
         <v>45902</v>
       </c>
+      <c r="Z44" s="9" t="n">
+        <v>45896</v>
+      </c>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="5" t="inlineStr">
@@ -3492,6 +3621,9 @@
       <c r="Y45" s="9" t="n">
         <v>45883</v>
       </c>
+      <c r="Z45" s="9" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="5" t="inlineStr">
@@ -3562,6 +3694,9 @@
       <c r="Y46" s="9" t="n">
         <v>45908</v>
       </c>
+      <c r="Z46" s="9" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="5" t="inlineStr">
@@ -3635,6 +3770,9 @@
       <c r="Y47" s="9" t="n">
         <v>45887</v>
       </c>
+      <c r="Z47" s="9" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="5" t="inlineStr">
@@ -3702,6 +3840,9 @@
       <c r="Y48" s="9" t="n">
         <v>45895</v>
       </c>
+      <c r="Z48" s="9" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="inlineStr">
@@ -3740,6 +3881,9 @@
         <is>
           <t>KOM</t>
         </is>
+      </c>
+      <c r="Z49" s="9" t="n">
+        <v>45887</v>
       </c>
     </row>
     <row r="50" ht="16.5" customHeight="1">
@@ -3813,6 +3957,9 @@
       <c r="Y50" s="9" t="n">
         <v>45748</v>
       </c>
+      <c r="Z50" s="9" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="5" t="inlineStr">
@@ -3886,6 +4033,9 @@
         <v>45876</v>
       </c>
       <c r="Y51" s="9" t="n">
+        <v>45876</v>
+      </c>
+      <c r="Z51" s="9" t="n">
         <v>45876</v>
       </c>
     </row>
@@ -3946,6 +4096,9 @@
       <c r="Y52" s="9" t="n">
         <v>45874</v>
       </c>
+      <c r="Z52" s="9" t="n">
+        <v>45874</v>
+      </c>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="5" t="inlineStr">
@@ -4027,6 +4180,9 @@
       <c r="Y53" s="9" t="n">
         <v>45840</v>
       </c>
+      <c r="Z53" s="9" t="n">
+        <v>45873</v>
+      </c>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="5" t="inlineStr">
@@ -4108,6 +4264,9 @@
       <c r="Y54" s="9" t="n">
         <v>45870</v>
       </c>
+      <c r="Z54" s="9" t="n">
+        <v>45870</v>
+      </c>
     </row>
     <row r="55" ht="32.25" customHeight="1">
       <c r="A55" s="5" t="inlineStr">
@@ -4181,6 +4340,9 @@
       </c>
       <c r="Y55" s="9" t="n">
         <v>45873</v>
+      </c>
+      <c r="Z55" s="9" t="n">
+        <v>45870</v>
       </c>
     </row>
     <row r="56" ht="16.5" customHeight="1">
@@ -4263,6 +4425,9 @@
       <c r="Y56" s="9" t="n">
         <v>45797</v>
       </c>
+      <c r="Z56" s="9" t="n">
+        <v>45869</v>
+      </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="5" t="inlineStr">
@@ -4328,6 +4493,9 @@
       <c r="Y57" s="9" t="n">
         <v>45869</v>
       </c>
+      <c r="Z57" s="9" t="n">
+        <v>45869</v>
+      </c>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="5" t="inlineStr">
@@ -4390,6 +4558,9 @@
       <c r="Y58" s="9" t="n">
         <v>45869</v>
       </c>
+      <c r="Z58" s="9" t="n">
+        <v>45869</v>
+      </c>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="5" t="inlineStr">
@@ -4444,6 +4615,9 @@
         <v>45869</v>
       </c>
       <c r="Y59" s="9" t="n">
+        <v>45869</v>
+      </c>
+      <c r="Z59" s="9" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -4527,6 +4701,9 @@
       <c r="Y60" s="9" t="n">
         <v>45803</v>
       </c>
+      <c r="Z60" s="9" t="n">
+        <v>45867</v>
+      </c>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="5" t="inlineStr">
@@ -4602,6 +4779,9 @@
       <c r="Y61" s="9" t="n">
         <v>45876</v>
       </c>
+      <c r="Z61" s="9" t="n">
+        <v>45866</v>
+      </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="5" t="inlineStr">
@@ -4672,6 +4852,9 @@
       <c r="Y62" s="9" t="n">
         <v>45866</v>
       </c>
+      <c r="Z62" s="9" t="n">
+        <v>45866</v>
+      </c>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="5" t="inlineStr">
@@ -4737,6 +4920,9 @@
       <c r="Y63" s="9" t="n">
         <v>45866</v>
       </c>
+      <c r="Z63" s="9" t="n">
+        <v>45866</v>
+      </c>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="5" t="inlineStr">
@@ -4802,6 +4988,9 @@
       <c r="Y64" s="9" t="n">
         <v>45866</v>
       </c>
+      <c r="Z64" s="9" t="n">
+        <v>45866</v>
+      </c>
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="5" t="inlineStr">
@@ -4883,6 +5072,9 @@
       <c r="Y65" s="9" t="n">
         <v>45863</v>
       </c>
+      <c r="Z65" s="9" t="n">
+        <v>45863</v>
+      </c>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="5" t="inlineStr">
@@ -4964,6 +5156,9 @@
       <c r="Y66" s="9" t="n">
         <v>45856</v>
       </c>
+      <c r="Z66" s="9" t="n">
+        <v>45862</v>
+      </c>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="5" t="inlineStr">
@@ -4992,6 +5187,9 @@
       <c r="F67" s="13" t="n"/>
       <c r="G67" s="6" t="n"/>
       <c r="H67" s="5" t="n"/>
+      <c r="Z67" s="9" t="n">
+        <v>45860</v>
+      </c>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="5" t="inlineStr">
@@ -5065,6 +5263,9 @@
       <c r="Y68" s="9" t="n">
         <v>45838</v>
       </c>
+      <c r="Z68" s="9" t="n">
+        <v>45860</v>
+      </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="5" t="inlineStr">
@@ -5110,6 +5311,9 @@
       <c r="Y69" s="9" t="n">
         <v>45968</v>
       </c>
+      <c r="Z69" s="9" t="n">
+        <v>45860</v>
+      </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="5" t="inlineStr">
@@ -5188,6 +5392,9 @@
       <c r="Y70" s="9" t="n">
         <v>45861</v>
       </c>
+      <c r="Z70" s="9" t="n">
+        <v>45859</v>
+      </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="5" t="inlineStr">
@@ -5269,6 +5476,9 @@
       <c r="Y71" s="9" t="n">
         <v>45870</v>
       </c>
+      <c r="Z71" s="9" t="n">
+        <v>45859</v>
+      </c>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="5" t="inlineStr">
@@ -5309,6 +5519,9 @@
       <c r="Y72" s="9" t="n">
         <v>45856</v>
       </c>
+      <c r="Z72" s="9" t="n">
+        <v>45855</v>
+      </c>
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="5" t="inlineStr">
@@ -5354,6 +5567,9 @@
       <c r="Y73" s="9" t="n">
         <v>45856</v>
       </c>
+      <c r="Z73" s="9" t="n">
+        <v>45854</v>
+      </c>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="5" t="inlineStr">
@@ -5386,6 +5602,9 @@
         <is>
           <t>KOM</t>
         </is>
+      </c>
+      <c r="Z74" s="9" t="n">
+        <v>45854</v>
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1">
@@ -5462,6 +5681,9 @@
       <c r="Y75" s="9" t="n">
         <v>45855</v>
       </c>
+      <c r="Z75" s="9" t="n">
+        <v>45854</v>
+      </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="5" t="inlineStr">
@@ -5543,6 +5765,9 @@
       <c r="Y76" s="9" t="n">
         <v>45845</v>
       </c>
+      <c r="Z76" s="9" t="n">
+        <v>45853</v>
+      </c>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="5" t="inlineStr">
@@ -5624,6 +5849,9 @@
       <c r="Y77" s="9" t="n">
         <v>45848</v>
       </c>
+      <c r="Z77" s="9" t="n">
+        <v>45853</v>
+      </c>
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="5" t="inlineStr">
@@ -5699,6 +5927,9 @@
       </c>
       <c r="Y78" s="9" t="n">
         <v>45860</v>
+      </c>
+      <c r="Z78" s="9" t="n">
+        <v>45852</v>
       </c>
     </row>
     <row r="79" ht="16.5" customHeight="1">
@@ -5781,6 +6012,9 @@
       <c r="Y79" s="9" t="n">
         <v>45852</v>
       </c>
+      <c r="Z79" s="9" t="n">
+        <v>45852</v>
+      </c>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="5" t="inlineStr">
@@ -5820,6 +6054,9 @@
       </c>
       <c r="Y80" s="9" t="n">
         <v>45853</v>
+      </c>
+      <c r="Z80" s="9" t="n">
+        <v>45852</v>
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
@@ -5882,6 +6119,9 @@
       <c r="Y81" s="9" t="n">
         <v>45852</v>
       </c>
+      <c r="Z81" s="9" t="n">
+        <v>45852</v>
+      </c>
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="5" t="inlineStr">
@@ -5943,6 +6183,9 @@
       <c r="Y82" s="9" t="n">
         <v>45846</v>
       </c>
+      <c r="Z82" s="9" t="n">
+        <v>45852</v>
+      </c>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="5" t="inlineStr">
@@ -6004,6 +6247,9 @@
       <c r="Y83" s="9" t="n">
         <v>45848</v>
       </c>
+      <c r="Z83" s="9" t="n">
+        <v>45852</v>
+      </c>
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="5" t="inlineStr">
@@ -6050,6 +6296,9 @@
       <c r="Y84" s="9" t="n">
         <v>45849</v>
       </c>
+      <c r="Z84" s="9" t="n">
+        <v>45849</v>
+      </c>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="5" t="inlineStr">
@@ -6129,6 +6378,9 @@
       <c r="Y85" s="9" t="n">
         <v>45847</v>
       </c>
+      <c r="Z85" s="9" t="n">
+        <v>45848</v>
+      </c>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="5" t="inlineStr">
@@ -6201,6 +6453,9 @@
       <c r="Y86" s="9" t="n">
         <v>45847</v>
       </c>
+      <c r="Z86" s="9" t="n">
+        <v>45845</v>
+      </c>
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="5" t="inlineStr">
@@ -6272,6 +6527,9 @@
       <c r="Y87" s="9" t="n">
         <v>45842</v>
       </c>
+      <c r="Z87" s="9" t="n">
+        <v>45841</v>
+      </c>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="5" t="inlineStr">
@@ -6349,6 +6607,9 @@
       <c r="Y88" s="9" t="n">
         <v>45840</v>
       </c>
+      <c r="Z88" s="9" t="n">
+        <v>45840</v>
+      </c>
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="5" t="inlineStr">
@@ -6397,6 +6658,9 @@
       <c r="Y89" s="9" t="n">
         <v>45839</v>
       </c>
+      <c r="Z89" s="9" t="n">
+        <v>45839</v>
+      </c>
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="5" t="inlineStr">
@@ -6427,6 +6691,9 @@
       <c r="Y90" s="9" t="n">
         <v>45765</v>
       </c>
+      <c r="Z90" s="9" t="n">
+        <v>45839</v>
+      </c>
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="5" t="inlineStr">
@@ -6511,6 +6778,9 @@
       </c>
       <c r="Y91" s="9" t="n">
         <v>45842</v>
+      </c>
+      <c r="Z91" s="9" t="n">
+        <v>45839</v>
       </c>
     </row>
   </sheetData>

--- a/Avanzamento_schede_automated.xlsx
+++ b/Avanzamento_schede_automated.xlsx
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -194,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -780,32 +783,34 @@
       <c r="F2" s="6" t="n">
         <v>22540219</v>
       </c>
-      <c r="G2" s="6" t="n"/>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="5" t="n"/>
-      <c r="S2" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="T2" s="9" t="n">
+      <c r="S2" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="T2" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="10" t="n">
         <v>45926</v>
       </c>
     </row>
@@ -818,7 +823,7 @@
       <c r="B3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="n"/>
+      <c r="C3" s="11" t="n"/>
       <c r="D3" s="7" t="inlineStr">
         <is>
           <t>MCB 3070WT</t>
@@ -829,30 +834,32 @@
           <t>B.07079 - RE001</t>
         </is>
       </c>
-      <c r="G3" s="6" t="n"/>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" s="5" t="n"/>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="10" t="n">
         <v>45930</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Z3" s="10" t="n">
         <v>45926</v>
       </c>
     </row>
@@ -883,48 +890,50 @@
       <c r="F4" s="6" t="n">
         <v>22540195</v>
       </c>
-      <c r="G4" s="6" t="n"/>
+      <c r="G4" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="H4" s="5" t="n"/>
-      <c r="M4" s="9" t="n">
+      <c r="M4" s="10" t="n">
         <v>45898</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="10" t="n">
         <v>45898</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="10" t="n">
         <v>45898</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="10" t="n">
         <v>45898</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="W4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Y4" s="9" t="n">
+      <c r="Y4" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Z4" s="9" t="n">
+      <c r="Z4" s="10" t="n">
         <v>45926</v>
       </c>
     </row>
@@ -955,60 +964,62 @@
       <c r="F5" s="6" t="n">
         <v>22540146</v>
       </c>
-      <c r="G5" s="6" t="n"/>
+      <c r="G5" s="9" t="n">
+        <v>126</v>
+      </c>
       <c r="H5" s="5" t="n"/>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="Q5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="R5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="T5" s="9" t="n">
+      <c r="T5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="U5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="W5" s="9" t="n">
+      <c r="W5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="10" t="n">
         <v>45800</v>
       </c>
-      <c r="Z5" s="9" t="n">
+      <c r="Z5" s="10" t="n">
         <v>45926</v>
       </c>
     </row>
@@ -1037,26 +1048,28 @@
       <c r="F6" s="6" t="n">
         <v>22530014</v>
       </c>
-      <c r="G6" s="6" t="n"/>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" s="5" t="n"/>
-      <c r="S6" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="T6" s="9" t="n">
+      <c r="S6" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="T6" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="U6" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="Y6" s="9" t="n">
+      <c r="Y6" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="Z6" s="9" t="n">
+      <c r="Z6" s="10" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -1087,42 +1100,44 @@
       <c r="F7" s="6" t="n">
         <v>22640001</v>
       </c>
-      <c r="G7" s="6" t="n"/>
+      <c r="G7" s="9" t="n">
+        <v>-3</v>
+      </c>
       <c r="H7" s="5" t="n"/>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="Q7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="R7" s="9" t="n">
+      <c r="R7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="T7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="U7" s="9" t="n">
+      <c r="U7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="V7" s="9" t="n">
+      <c r="V7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="W7" s="9" t="n">
+      <c r="W7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="X7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Y7" s="9" t="n">
+      <c r="Y7" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Z7" s="9" t="n">
+      <c r="Z7" s="10" t="n">
         <v>45923</v>
       </c>
     </row>
@@ -1153,36 +1168,38 @@
       <c r="F8" s="6" t="n">
         <v>22540210</v>
       </c>
-      <c r="G8" s="6" t="n"/>
+      <c r="G8" s="9" t="n">
+        <v>-2</v>
+      </c>
       <c r="H8" s="5" t="n"/>
-      <c r="Q8" s="9" t="n">
+      <c r="Q8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="R8" s="9" t="n">
+      <c r="R8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="T8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="U8" s="9" t="n">
+      <c r="U8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="V8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="W8" s="9" t="n">
+      <c r="W8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="X8" s="9" t="n">
+      <c r="X8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="Y8" s="9" t="n">
+      <c r="Y8" s="10" t="n">
         <v>45924</v>
       </c>
-      <c r="Z8" s="9" t="n">
+      <c r="Z8" s="10" t="n">
         <v>45922</v>
       </c>
     </row>
@@ -1211,32 +1228,34 @@
       <c r="F9" s="6" t="n">
         <v>22540214</v>
       </c>
-      <c r="G9" s="6" t="n"/>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="5" t="n"/>
-      <c r="S9" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="T9" s="9" t="n">
+      <c r="S9" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="T9" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="U9" s="9" t="n">
+      <c r="U9" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="W9" s="9" t="n">
+      <c r="W9" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="X9" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="Y9" s="9" t="n">
+      <c r="Y9" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="Z9" s="9" t="n">
+      <c r="Z9" s="10" t="n">
         <v>45922</v>
       </c>
     </row>
@@ -1265,26 +1284,28 @@
       <c r="F10" s="6" t="n">
         <v>22540218</v>
       </c>
-      <c r="G10" s="6" t="n"/>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" s="5" t="n"/>
-      <c r="S10" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="T10" s="9" t="n">
+      <c r="S10" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="T10" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="U10" s="9" t="n">
+      <c r="U10" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="V10" s="9" t="n">
+      <c r="V10" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="Y10" s="9" t="n">
+      <c r="Y10" s="10" t="n">
         <v>45922</v>
       </c>
-      <c r="Z10" s="9" t="n">
+      <c r="Z10" s="10" t="n">
         <v>45922</v>
       </c>
     </row>
@@ -1312,60 +1333,62 @@
           <t>B.23019 - RE001</t>
         </is>
       </c>
-      <c r="G11" s="6" t="n"/>
+      <c r="G11" s="9" t="n">
+        <v>145</v>
+      </c>
       <c r="H11" s="5" t="n"/>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="K11" s="9" t="n">
+      <c r="K11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="M11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="P11" s="9" t="n">
+      <c r="P11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="Q11" s="9" t="n">
+      <c r="Q11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="R11" s="9" t="n">
+      <c r="R11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="S11" s="9" t="n">
+      <c r="S11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="T11" s="9" t="n">
+      <c r="T11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="U11" s="9" t="n">
+      <c r="U11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="V11" s="9" t="n">
+      <c r="V11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="W11" s="9" t="n">
+      <c r="W11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="X11" s="9" t="n">
+      <c r="X11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="Y11" s="9" t="n">
+      <c r="Y11" s="10" t="n">
         <v>45777</v>
       </c>
-      <c r="Z11" s="9" t="n">
+      <c r="Z11" s="10" t="n">
         <v>45922</v>
       </c>
     </row>
@@ -1396,46 +1419,48 @@
       <c r="F12" s="6" t="n">
         <v>22540202</v>
       </c>
-      <c r="G12" s="6" t="n"/>
+      <c r="G12" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="H12" s="5" t="n"/>
-      <c r="O12" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P12" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q12" s="9" t="n">
+      <c r="O12" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P12" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="R12" s="9" t="n">
+      <c r="R12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="S12" s="9" t="n">
+      <c r="S12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="T12" s="9" t="n">
+      <c r="T12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="U12" s="9" t="n">
+      <c r="U12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="V12" s="9" t="n">
+      <c r="V12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="W12" s="9" t="n">
+      <c r="W12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="X12" s="9" t="n">
+      <c r="X12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="Y12" s="9" t="n">
+      <c r="Y12" s="10" t="n">
         <v>45917</v>
       </c>
-      <c r="Z12" s="9" t="n">
+      <c r="Z12" s="10" t="n">
         <v>45919</v>
       </c>
     </row>
@@ -1466,60 +1491,62 @@
       <c r="F13" s="6" t="n">
         <v>22540115</v>
       </c>
-      <c r="G13" s="6" t="n"/>
+      <c r="G13" s="9" t="n">
+        <v>74</v>
+      </c>
       <c r="H13" s="5" t="n"/>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="K13" s="9" t="n">
+      <c r="K13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="M13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="Q13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="R13" s="9" t="n">
+      <c r="R13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="S13" s="9" t="n">
+      <c r="S13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="T13" s="9" t="n">
+      <c r="T13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="U13" s="9" t="n">
+      <c r="U13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="V13" s="9" t="n">
+      <c r="V13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="W13" s="9" t="n">
+      <c r="W13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="X13" s="9" t="n">
+      <c r="X13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Y13" s="9" t="n">
+      <c r="Y13" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Z13" s="9" t="n">
+      <c r="Z13" s="10" t="n">
         <v>45919</v>
       </c>
     </row>
@@ -1550,41 +1577,43 @@
       <c r="F14" s="6" t="n">
         <v>22540096</v>
       </c>
-      <c r="G14" s="6" t="n"/>
+      <c r="G14" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="H14" s="5" t="n"/>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="10" t="n">
         <v>45705</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="10" t="n">
         <v>45705</v>
       </c>
-      <c r="K14" s="9" t="n">
+      <c r="K14" s="10" t="n">
         <v>45705</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="L14" s="10" t="n">
         <v>45705</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="10" t="n">
         <v>45705</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="N14" s="10" t="n">
         <v>45705</v>
       </c>
-      <c r="O14" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P14" s="9" t="n">
+      <c r="O14" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P14" s="10" t="n">
         <v>45901</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="Q14" s="10" t="n">
         <v>45901</v>
       </c>
-      <c r="Y14" s="9" t="n">
+      <c r="Y14" s="10" t="n">
         <v>45901</v>
       </c>
-      <c r="Z14" s="9" t="n">
+      <c r="Z14" s="10" t="n">
         <v>45918</v>
       </c>
     </row>
@@ -1615,41 +1644,43 @@
       <c r="F15" s="6" t="n">
         <v>22540206</v>
       </c>
-      <c r="G15" s="6" t="n"/>
+      <c r="G15" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" s="5" t="n"/>
-      <c r="P15" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q15" s="9" t="n">
+      <c r="P15" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="R15" s="9" t="n">
+      <c r="R15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="S15" s="9" t="n">
+      <c r="S15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="T15" s="9" t="n">
+      <c r="T15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="U15" s="9" t="n">
+      <c r="U15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="V15" s="9" t="n">
+      <c r="V15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="W15" s="9" t="n">
+      <c r="W15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="X15" s="9" t="n">
+      <c r="X15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Y15" s="9" t="n">
+      <c r="Y15" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Z15" s="9" t="n">
+      <c r="Z15" s="10" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -1680,48 +1711,50 @@
       <c r="F16" s="6" t="n">
         <v>22540194</v>
       </c>
-      <c r="G16" s="6" t="n"/>
+      <c r="G16" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="5" t="n"/>
-      <c r="M16" s="9" t="n">
+      <c r="M16" s="10" t="n">
         <v>45905</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="N16" s="10" t="n">
         <v>45905</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="O16" s="10" t="n">
         <v>45905</v>
       </c>
-      <c r="P16" s="9" t="n">
+      <c r="P16" s="10" t="n">
         <v>45905</v>
       </c>
-      <c r="Q16" s="9" t="n">
+      <c r="Q16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="R16" s="9" t="n">
+      <c r="R16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="S16" s="9" t="n">
+      <c r="S16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="T16" s="9" t="n">
+      <c r="T16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="U16" s="9" t="n">
+      <c r="U16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="V16" s="9" t="n">
+      <c r="V16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="W16" s="9" t="n">
+      <c r="W16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="X16" s="9" t="n">
+      <c r="X16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Y16" s="9" t="n">
+      <c r="Y16" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Z16" s="9" t="n">
+      <c r="Z16" s="10" t="n">
         <v>45916</v>
       </c>
     </row>
@@ -1752,36 +1785,38 @@
       <c r="F17" s="6" t="n">
         <v>22540209</v>
       </c>
-      <c r="G17" s="6" t="n"/>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" s="5" t="n"/>
-      <c r="Q17" s="9" t="n">
+      <c r="Q17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="R17" s="9" t="n">
+      <c r="R17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="S17" s="9" t="n">
+      <c r="S17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="T17" s="9" t="n">
+      <c r="T17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="U17" s="9" t="n">
+      <c r="U17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="V17" s="9" t="n">
+      <c r="V17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="W17" s="9" t="n">
+      <c r="W17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="X17" s="9" t="n">
+      <c r="X17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Y17" s="9" t="n">
+      <c r="Y17" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Z17" s="9" t="n">
+      <c r="Z17" s="10" t="n">
         <v>45916</v>
       </c>
     </row>
@@ -1812,39 +1847,41 @@
       <c r="F18" s="6" t="n">
         <v>22540204</v>
       </c>
-      <c r="G18" s="6" t="n"/>
+      <c r="G18" s="9" t="n">
+        <v>-4</v>
+      </c>
       <c r="H18" s="5" t="n"/>
-      <c r="P18" s="9" t="n">
+      <c r="P18" s="10" t="n">
         <v>46010</v>
       </c>
-      <c r="Q18" s="9" t="n">
+      <c r="Q18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="R18" s="9" t="n">
+      <c r="R18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="S18" s="9" t="n">
+      <c r="S18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="T18" s="9" t="n">
+      <c r="T18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="U18" s="9" t="n">
+      <c r="U18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="V18" s="9" t="n">
+      <c r="V18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="W18" s="9" t="n">
+      <c r="W18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="X18" s="9" t="n">
+      <c r="X18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="Y18" s="9" t="n">
+      <c r="Y18" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="Z18" s="9" t="n">
+      <c r="Z18" s="10" t="n">
         <v>45915</v>
       </c>
     </row>
@@ -1875,42 +1912,44 @@
       <c r="F19" s="6" t="n">
         <v>22540203</v>
       </c>
-      <c r="G19" s="6" t="n"/>
+      <c r="G19" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="H19" s="5" t="n"/>
-      <c r="O19" s="9" t="n">
+      <c r="O19" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="P19" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Q19" s="9" t="n">
+      <c r="Q19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="R19" s="9" t="n">
+      <c r="R19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="S19" s="9" t="n">
+      <c r="S19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="T19" s="9" t="n">
+      <c r="T19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="U19" s="9" t="n">
+      <c r="U19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="V19" s="9" t="n">
+      <c r="V19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="W19" s="9" t="n">
+      <c r="W19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="X19" s="9" t="n">
+      <c r="X19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Y19" s="9" t="n">
+      <c r="Y19" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Z19" s="9" t="n">
+      <c r="Z19" s="10" t="n">
         <v>45933</v>
       </c>
     </row>
@@ -1941,40 +1980,42 @@
       <c r="F20" s="6" t="n">
         <v>22540213</v>
       </c>
-      <c r="G20" s="6" t="n"/>
+      <c r="G20" s="9" t="n">
+        <v>-11</v>
+      </c>
       <c r="H20" s="5" t="n"/>
-      <c r="Q20" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="R20" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="S20" s="9" t="n">
+      <c r="Q20" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="R20" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="S20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="T20" s="9" t="n">
+      <c r="T20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="U20" s="9" t="n">
+      <c r="U20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="V20" s="9" t="n">
+      <c r="V20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="W20" s="9" t="n">
+      <c r="W20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="X20" s="9" t="n">
+      <c r="X20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Y20" s="9" t="n">
+      <c r="Y20" s="10" t="n">
         <v>45926</v>
       </c>
-      <c r="Z20" s="9" t="n">
+      <c r="Z20" s="10" t="n">
         <v>45915</v>
       </c>
     </row>
@@ -2003,20 +2044,22 @@
       <c r="F21" s="6" t="n">
         <v>22540211</v>
       </c>
-      <c r="G21" s="6" t="n"/>
+      <c r="G21" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H21" s="5" t="n"/>
-      <c r="Q21" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="R21" s="9" t="n">
+      <c r="Q21" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="R21" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Y21" s="9" t="n">
+      <c r="Y21" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Z21" s="9" t="n">
+      <c r="Z21" s="10" t="n">
         <v>45915</v>
       </c>
     </row>
@@ -2047,36 +2090,38 @@
       <c r="F22" s="6" t="n">
         <v>22540209</v>
       </c>
-      <c r="G22" s="6" t="n"/>
+      <c r="G22" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H22" s="5" t="n"/>
-      <c r="Q22" s="9" t="n">
+      <c r="Q22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="R22" s="9" t="n">
+      <c r="R22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="S22" s="9" t="n">
+      <c r="S22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="T22" s="9" t="n">
+      <c r="T22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="U22" s="9" t="n">
+      <c r="U22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="V22" s="9" t="n">
+      <c r="V22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="W22" s="9" t="n">
+      <c r="W22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="X22" s="9" t="n">
+      <c r="X22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Y22" s="9" t="n">
+      <c r="Y22" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Z22" s="9" t="n">
+      <c r="Z22" s="10" t="n">
         <v>45915</v>
       </c>
     </row>
@@ -2089,7 +2134,7 @@
       <c r="B23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="10" t="n"/>
+      <c r="C23" s="11" t="n"/>
       <c r="D23" s="7" t="inlineStr">
         <is>
           <t>MCP 18</t>
@@ -2101,33 +2146,35 @@
       <c r="F23" s="6" t="n">
         <v>22520026</v>
       </c>
-      <c r="G23" s="6" t="n"/>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" s="5" t="n"/>
-      <c r="R23" s="9" t="n">
+      <c r="R23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="S23" s="9" t="n">
+      <c r="S23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="T23" s="9" t="n">
+      <c r="T23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="U23" s="9" t="n">
+      <c r="U23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="V23" s="9" t="n">
+      <c r="V23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="W23" s="9" t="n">
+      <c r="W23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="X23" s="9" t="n">
+      <c r="X23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Y23" s="9" t="n">
+      <c r="Y23" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Z23" s="9" t="n">
+      <c r="Z23" s="10" t="n">
         <v>45915</v>
       </c>
     </row>
@@ -2156,66 +2203,68 @@
       <c r="F24" s="6" t="n">
         <v>22540187</v>
       </c>
-      <c r="G24" s="6" t="n"/>
+      <c r="G24" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="H24" s="5" t="n"/>
-      <c r="K24" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="L24" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M24" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N24" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O24" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P24" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q24" s="9" t="n">
+      <c r="K24" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="L24" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M24" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N24" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O24" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P24" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="R24" s="9" t="n">
+      <c r="R24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="S24" s="9" t="n">
+      <c r="S24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="T24" s="9" t="n">
+      <c r="T24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="U24" s="9" t="n">
+      <c r="U24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="V24" s="9" t="n">
+      <c r="V24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="W24" s="9" t="n">
+      <c r="W24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="X24" s="9" t="n">
+      <c r="X24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Y24" s="9" t="n">
+      <c r="Y24" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Z24" s="9" t="n">
+      <c r="Z24" s="10" t="n">
         <v>45912</v>
       </c>
     </row>
@@ -2228,7 +2277,7 @@
       <c r="B25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="10" t="n"/>
+      <c r="C25" s="11" t="n"/>
       <c r="D25" s="7" t="inlineStr">
         <is>
           <t>MCO 3060</t>
@@ -2239,36 +2288,38 @@
           <t>O.05002 - RE001</t>
         </is>
       </c>
-      <c r="G25" s="6" t="n"/>
+      <c r="G25" s="9" t="n">
+        <v>-8</v>
+      </c>
       <c r="H25" s="5" t="n"/>
-      <c r="Q25" s="9" t="n">
+      <c r="Q25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="R25" s="9" t="n">
+      <c r="R25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="S25" s="9" t="n">
+      <c r="S25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="T25" s="9" t="n">
+      <c r="T25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="U25" s="9" t="n">
+      <c r="U25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="V25" s="9" t="n">
+      <c r="V25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="W25" s="9" t="n">
+      <c r="W25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="X25" s="9" t="n">
+      <c r="X25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="Y25" s="9" t="n">
+      <c r="Y25" s="10" t="n">
         <v>45919</v>
       </c>
-      <c r="Z25" s="9" t="n">
+      <c r="Z25" s="10" t="n">
         <v>45911</v>
       </c>
     </row>
@@ -2299,36 +2350,38 @@
       <c r="F26" s="6" t="n">
         <v>22640003</v>
       </c>
-      <c r="G26" s="6" t="n"/>
+      <c r="G26" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H26" s="5" t="n"/>
-      <c r="Q26" s="9" t="n">
+      <c r="Q26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="R26" s="9" t="n">
+      <c r="R26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="S26" s="9" t="n">
+      <c r="S26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="T26" s="9" t="n">
+      <c r="T26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="U26" s="9" t="n">
+      <c r="U26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="V26" s="9" t="n">
+      <c r="V26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="W26" s="9" t="n">
+      <c r="W26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="X26" s="9" t="n">
+      <c r="X26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Y26" s="9" t="n">
+      <c r="Y26" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Z26" s="9" t="n">
+      <c r="Z26" s="10" t="n">
         <v>45911</v>
       </c>
     </row>
@@ -2359,41 +2412,43 @@
       <c r="F27" s="6" t="n">
         <v>22540207</v>
       </c>
-      <c r="G27" s="6" t="n"/>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" s="5" t="n"/>
-      <c r="P27" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q27" s="9" t="n">
+      <c r="P27" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="R27" s="9" t="n">
+      <c r="R27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="S27" s="9" t="n">
+      <c r="S27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="T27" s="9" t="n">
+      <c r="T27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="U27" s="9" t="n">
+      <c r="U27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="V27" s="9" t="n">
+      <c r="V27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="W27" s="9" t="n">
+      <c r="W27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="X27" s="9" t="n">
+      <c r="X27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Y27" s="9" t="n">
+      <c r="Y27" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Z27" s="9" t="n">
+      <c r="Z27" s="10" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2424,45 +2479,47 @@
       <c r="F28" s="6" t="n">
         <v>22540131</v>
       </c>
-      <c r="G28" s="6" t="n"/>
+      <c r="G28" s="9" t="n">
+        <v>125</v>
+      </c>
       <c r="H28" s="5" t="n"/>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="K28" s="9" t="n">
+      <c r="K28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="L28" s="9" t="n">
+      <c r="L28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="M28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="N28" s="9" t="n">
+      <c r="N28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="O28" s="9" t="n">
+      <c r="O28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="P28" s="9" t="n">
+      <c r="P28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="Q28" s="9" t="n">
+      <c r="Q28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="R28" s="9" t="n">
+      <c r="R28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="S28" s="9" t="n">
+      <c r="S28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="Y28" s="9" t="n">
+      <c r="Y28" s="10" t="n">
         <v>45784</v>
       </c>
-      <c r="Z28" s="9" t="n">
+      <c r="Z28" s="10" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2488,41 +2545,43 @@
       <c r="E29" s="8" t="n">
         <v>22440191</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="12" t="n">
         <v>22540205</v>
       </c>
-      <c r="G29" s="6" t="n"/>
+      <c r="G29" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="H29" s="5" t="n"/>
-      <c r="O29" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P29" s="9" t="n">
+      <c r="O29" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P29" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="Q29" s="9" t="n">
+      <c r="Q29" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="R29" s="9" t="n">
+      <c r="R29" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="S29" s="9" t="n">
+      <c r="S29" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="T29" s="9" t="n">
+      <c r="T29" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="U29" s="9" t="n">
+      <c r="U29" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="V29" s="9" t="n">
+      <c r="V29" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="Y29" s="9" t="n">
+      <c r="Y29" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="Z29" s="9" t="n">
+      <c r="Z29" s="10" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2545,58 +2604,60 @@
           <t>MC4P 11</t>
         </is>
       </c>
-      <c r="E30" s="12" t="inlineStr">
+      <c r="E30" s="13" t="inlineStr">
         <is>
           <t>4P08012 - RE001</t>
         </is>
       </c>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="6" t="n"/>
+      <c r="F30" s="14" t="n"/>
+      <c r="G30" s="9" t="n">
+        <v>-6</v>
+      </c>
       <c r="H30" s="5" t="n"/>
-      <c r="L30" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M30" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N30" s="9" t="n">
+      <c r="L30" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M30" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="O30" s="9" t="n">
+      <c r="O30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="P30" s="9" t="n">
+      <c r="P30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Q30" s="9" t="n">
+      <c r="Q30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="R30" s="9" t="n">
+      <c r="R30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="S30" s="9" t="n">
+      <c r="S30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="T30" s="9" t="n">
+      <c r="T30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="U30" s="9" t="n">
+      <c r="U30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="V30" s="9" t="n">
+      <c r="V30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="W30" s="9" t="n">
+      <c r="W30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Y30" s="9" t="n">
+      <c r="Y30" s="10" t="n">
         <v>45915</v>
       </c>
-      <c r="Z30" s="9" t="n">
+      <c r="Z30" s="10" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2624,49 +2685,51 @@
           <t>A.25026</t>
         </is>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="12" t="n">
         <v>22540201</v>
       </c>
-      <c r="G31" s="6" t="n"/>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H31" s="5" t="n"/>
-      <c r="O31" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P31" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q31" s="9" t="n">
+      <c r="O31" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P31" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="R31" s="9" t="n">
+      <c r="R31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="S31" s="9" t="n">
+      <c r="S31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="T31" s="9" t="n">
+      <c r="T31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="U31" s="9" t="n">
+      <c r="U31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="V31" s="9" t="n">
+      <c r="V31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="W31" s="9" t="n">
+      <c r="W31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="X31" s="9" t="n">
+      <c r="X31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Y31" s="9" t="n">
+      <c r="Y31" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Z31" s="9" t="n">
+      <c r="Z31" s="10" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2689,39 +2752,41 @@
           <t>MCA 3028</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr">
+      <c r="E32" s="13" t="inlineStr">
         <is>
           <t>A.23089 - RE001</t>
         </is>
       </c>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="6" t="n"/>
+      <c r="F32" s="14" t="n"/>
+      <c r="G32" s="9" t="n">
+        <v>71</v>
+      </c>
       <c r="H32" s="5" t="n"/>
-      <c r="I32" s="9" t="n">
+      <c r="I32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="J32" s="9" t="n">
+      <c r="J32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="K32" s="9" t="n">
+      <c r="K32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="L32" s="9" t="n">
+      <c r="L32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="M32" s="9" t="n">
+      <c r="M32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="N32" s="9" t="n">
+      <c r="N32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="O32" s="9" t="n">
+      <c r="O32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="Y32" s="9" t="n">
+      <c r="Y32" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="Z32" s="9" t="n">
+      <c r="Z32" s="10" t="n">
         <v>45909</v>
       </c>
     </row>
@@ -2744,52 +2809,54 @@
           <t>MCE-A 2019</t>
         </is>
       </c>
-      <c r="E33" s="12" t="inlineStr">
+      <c r="E33" s="13" t="inlineStr">
         <is>
           <t>22440031 - RE001</t>
         </is>
       </c>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="14" t="n"/>
+      <c r="G33" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H33" s="5" t="n"/>
-      <c r="O33" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P33" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q33" s="9" t="n">
+      <c r="O33" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P33" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="R33" s="9" t="n">
+      <c r="R33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="S33" s="9" t="n">
+      <c r="S33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="T33" s="9" t="n">
+      <c r="T33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="U33" s="9" t="n">
+      <c r="U33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="V33" s="9" t="n">
+      <c r="V33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="W33" s="9" t="n">
+      <c r="W33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="X33" s="9" t="n">
+      <c r="X33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Y33" s="9" t="n">
+      <c r="Y33" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Z33" s="9" t="n">
+      <c r="Z33" s="10" t="n">
         <v>45908</v>
       </c>
     </row>
@@ -2812,47 +2879,49 @@
           <t>MCP 18</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
+      <c r="E34" s="13" t="inlineStr">
         <is>
           <t>P.24020 - RE001</t>
         </is>
       </c>
-      <c r="F34" s="14" t="n"/>
-      <c r="G34" s="6" t="n"/>
+      <c r="F34" s="15" t="n"/>
+      <c r="G34" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" s="5" t="n"/>
-      <c r="P34" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q34" s="9" t="n">
+      <c r="P34" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="R34" s="9" t="n">
+      <c r="R34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="S34" s="9" t="n">
+      <c r="S34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="T34" s="9" t="n">
+      <c r="T34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="U34" s="9" t="n">
+      <c r="U34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="V34" s="9" t="n">
+      <c r="V34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="W34" s="9" t="n">
+      <c r="W34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="X34" s="9" t="n">
+      <c r="X34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Y34" s="9" t="n">
+      <c r="Y34" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Z34" s="9" t="n">
+      <c r="Z34" s="10" t="n">
         <v>45908</v>
       </c>
     </row>
@@ -2880,41 +2949,43 @@
           <t>P.24017 - RE001</t>
         </is>
       </c>
-      <c r="G35" s="6" t="n"/>
+      <c r="G35" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" s="5" t="n"/>
-      <c r="P35" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q35" s="9" t="n">
+      <c r="P35" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="R35" s="9" t="n">
+      <c r="R35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="S35" s="9" t="n">
+      <c r="S35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="T35" s="9" t="n">
+      <c r="T35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="U35" s="9" t="n">
+      <c r="U35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="V35" s="9" t="n">
+      <c r="V35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="W35" s="9" t="n">
+      <c r="W35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="X35" s="9" t="n">
+      <c r="X35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Y35" s="9" t="n">
+      <c r="Y35" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Z35" s="9" t="n">
+      <c r="Z35" s="10" t="n">
         <v>45908</v>
       </c>
     </row>
@@ -2945,50 +3016,52 @@
       <c r="F36" s="6" t="n">
         <v>22520025</v>
       </c>
-      <c r="G36" s="6" t="n"/>
+      <c r="G36" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="H36" s="5" t="n"/>
-      <c r="M36" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N36" s="9" t="n">
+      <c r="M36" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="O36" s="9" t="n">
+      <c r="O36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="P36" s="9" t="n">
+      <c r="P36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Q36" s="9" t="n">
+      <c r="Q36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="R36" s="9" t="n">
+      <c r="R36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="S36" s="9" t="n">
+      <c r="S36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="T36" s="9" t="n">
+      <c r="T36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="U36" s="9" t="n">
+      <c r="U36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="V36" s="9" t="n">
+      <c r="V36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="W36" s="9" t="n">
+      <c r="W36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="X36" s="9" t="n">
+      <c r="X36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Y36" s="9" t="n">
+      <c r="Y36" s="10" t="n">
         <v>45912</v>
       </c>
-      <c r="Z36" s="9" t="n">
+      <c r="Z36" s="10" t="n">
         <v>45937</v>
       </c>
     </row>
@@ -3001,7 +3074,7 @@
       <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="10" t="n"/>
+      <c r="C37" s="11" t="n"/>
       <c r="D37" s="7" t="inlineStr">
         <is>
           <t>MCE-A 2020</t>
@@ -3013,30 +3086,32 @@
       <c r="F37" s="6" t="n">
         <v>22540183</v>
       </c>
-      <c r="G37" s="6" t="n"/>
+      <c r="G37" s="9" t="n">
+        <v>42</v>
+      </c>
       <c r="H37" s="5" t="n"/>
-      <c r="K37" s="9" t="n">
+      <c r="K37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="L37" s="9" t="n">
+      <c r="L37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="M37" s="9" t="n">
+      <c r="M37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="N37" s="9" t="n">
+      <c r="N37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="O37" s="9" t="n">
+      <c r="O37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="P37" s="9" t="n">
+      <c r="P37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Y37" s="9" t="n">
+      <c r="Y37" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Z37" s="9" t="n">
+      <c r="Z37" s="10" t="n">
         <v>45898</v>
       </c>
     </row>
@@ -3065,66 +3140,68 @@
       <c r="F38" s="6" t="n">
         <v>22540186</v>
       </c>
-      <c r="G38" s="6" t="n"/>
+      <c r="G38" s="9" t="n">
+        <v>-12</v>
+      </c>
       <c r="H38" s="5" t="n"/>
-      <c r="K38" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="L38" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M38" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N38" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O38" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P38" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q38" s="9" t="n">
+      <c r="K38" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="L38" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M38" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N38" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O38" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P38" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="R38" s="9" t="n">
+      <c r="R38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="S38" s="9" t="n">
+      <c r="S38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="T38" s="9" t="n">
+      <c r="T38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="U38" s="9" t="n">
+      <c r="U38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="V38" s="9" t="n">
+      <c r="V38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="W38" s="9" t="n">
+      <c r="W38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="X38" s="9" t="n">
+      <c r="X38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Y38" s="9" t="n">
+      <c r="Y38" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Z38" s="9" t="n">
+      <c r="Z38" s="10" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -3155,51 +3232,53 @@
       <c r="F39" s="6" t="n">
         <v>22540197</v>
       </c>
-      <c r="G39" s="6" t="n"/>
+      <c r="G39" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" s="5" t="n"/>
-      <c r="L39" s="9" t="n">
+      <c r="L39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="M39" s="9" t="n">
+      <c r="M39" s="10" t="n">
         <v>45904</v>
       </c>
-      <c r="N39" s="9" t="n">
+      <c r="N39" s="10" t="n">
         <v>45904</v>
       </c>
-      <c r="O39" s="9" t="n">
+      <c r="O39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="P39" s="9" t="n">
+      <c r="P39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="Q39" s="9" t="n">
+      <c r="Q39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="R39" s="9" t="n">
+      <c r="R39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="S39" s="9" t="n">
+      <c r="S39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="T39" s="9" t="n">
+      <c r="T39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="U39" s="9" t="n">
+      <c r="U39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="V39" s="9" t="n">
+      <c r="V39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="W39" s="9" t="n">
+      <c r="W39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="X39" s="9" t="n">
+      <c r="X39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="Y39" s="9" t="n">
+      <c r="Y39" s="10" t="n">
         <v>45897</v>
       </c>
-      <c r="Z39" s="9" t="n">
+      <c r="Z39" s="10" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -3212,7 +3291,7 @@
       <c r="B40" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="10" t="n"/>
+      <c r="C40" s="11" t="n"/>
       <c r="D40" s="7" t="inlineStr">
         <is>
           <t>MCE-A 2024</t>
@@ -3224,51 +3303,53 @@
       <c r="F40" s="6" t="n">
         <v>22540199</v>
       </c>
-      <c r="G40" s="6" t="n"/>
+      <c r="G40" s="9" t="n">
+        <v>-12</v>
+      </c>
       <c r="H40" s="5" t="n"/>
-      <c r="N40" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O40" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P40" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q40" s="9" t="n">
+      <c r="N40" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O40" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P40" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="R40" s="9" t="n">
+      <c r="R40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="S40" s="9" t="n">
+      <c r="S40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="T40" s="9" t="n">
+      <c r="T40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="U40" s="9" t="n">
+      <c r="U40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="V40" s="9" t="n">
+      <c r="V40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="W40" s="9" t="n">
+      <c r="W40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="X40" s="9" t="n">
+      <c r="X40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Y40" s="9" t="n">
+      <c r="Y40" s="10" t="n">
         <v>45909</v>
       </c>
-      <c r="Z40" s="9" t="n">
+      <c r="Z40" s="10" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -3281,7 +3362,7 @@
       <c r="B41" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="10" t="n"/>
+      <c r="C41" s="11" t="n"/>
       <c r="D41" s="7" t="inlineStr">
         <is>
           <t>MCB E25</t>
@@ -3295,37 +3376,39 @@
       <c r="F41" s="6" t="n">
         <v>22540200</v>
       </c>
-      <c r="G41" s="6" t="n"/>
+      <c r="G41" s="9" t="n">
+        <v>-5</v>
+      </c>
       <c r="H41" s="5" t="n"/>
-      <c r="N41" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O41" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P41" s="9" t="n">
+      <c r="N41" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O41" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P41" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="Q41" s="9" t="n">
+      <c r="Q41" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="R41" s="9" t="n">
+      <c r="R41" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="S41" s="9" t="n">
+      <c r="S41" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="T41" s="9" t="n">
+      <c r="T41" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="Y41" s="9" t="n">
+      <c r="Y41" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="Z41" s="9" t="n">
+      <c r="Z41" s="10" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -3354,66 +3437,68 @@
       <c r="F42" s="6" t="n">
         <v>22540187</v>
       </c>
-      <c r="G42" s="6" t="n"/>
+      <c r="G42" s="9" t="n">
+        <v>-11</v>
+      </c>
       <c r="H42" s="5" t="n"/>
-      <c r="K42" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="L42" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M42" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N42" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O42" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P42" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q42" s="9" t="n">
+      <c r="K42" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="L42" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M42" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N42" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O42" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P42" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="R42" s="9" t="n">
+      <c r="R42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="S42" s="9" t="n">
+      <c r="S42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="T42" s="9" t="n">
+      <c r="T42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="U42" s="9" t="n">
+      <c r="U42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="V42" s="9" t="n">
+      <c r="V42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="W42" s="9" t="n">
+      <c r="W42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="X42" s="9" t="n">
+      <c r="X42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Y42" s="9" t="n">
+      <c r="Y42" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Z42" s="9" t="n">
+      <c r="Z42" s="10" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -3444,60 +3529,62 @@
       <c r="F43" s="6" t="n">
         <v>22530010</v>
       </c>
-      <c r="G43" s="6" t="n"/>
+      <c r="G43" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="H43" s="5" t="n"/>
-      <c r="I43" s="9" t="n">
+      <c r="I43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="K43" s="9" t="n">
+      <c r="K43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="L43" s="9" t="n">
+      <c r="L43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="M43" s="9" t="n">
+      <c r="M43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="N43" s="9" t="n">
+      <c r="N43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="O43" s="9" t="n">
+      <c r="O43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="P43" s="9" t="n">
+      <c r="P43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Q43" s="9" t="n">
+      <c r="Q43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="R43" s="9" t="n">
+      <c r="R43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="S43" s="9" t="n">
+      <c r="S43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="T43" s="9" t="n">
+      <c r="T43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="U43" s="9" t="n">
+      <c r="U43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="V43" s="9" t="n">
+      <c r="V43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="W43" s="9" t="n">
+      <c r="W43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="X43" s="9" t="n">
+      <c r="X43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Y43" s="9" t="n">
+      <c r="Y43" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Z43" s="9" t="n">
+      <c r="Z43" s="10" t="n">
         <v>45863</v>
       </c>
     </row>
@@ -3528,48 +3615,50 @@
       <c r="F44" s="6" t="n">
         <v>22540191</v>
       </c>
-      <c r="G44" s="6" t="n"/>
+      <c r="G44" s="9" t="n">
+        <v>-6</v>
+      </c>
       <c r="H44" s="5" t="n"/>
-      <c r="M44" s="9" t="n">
+      <c r="M44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="N44" s="9" t="n">
+      <c r="N44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="O44" s="9" t="n">
+      <c r="O44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="P44" s="9" t="n">
+      <c r="P44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="Q44" s="9" t="n">
+      <c r="Q44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="R44" s="9" t="n">
+      <c r="R44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="S44" s="9" t="n">
+      <c r="S44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="T44" s="9" t="n">
+      <c r="T44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="U44" s="9" t="n">
+      <c r="U44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="V44" s="9" t="n">
+      <c r="V44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="W44" s="9" t="n">
+      <c r="W44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="X44" s="9" t="n">
+      <c r="X44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="Y44" s="9" t="n">
+      <c r="Y44" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="Z44" s="9" t="n">
+      <c r="Z44" s="10" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -3595,33 +3684,35 @@
       <c r="E45" s="8" t="n">
         <v>22430009</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="12" t="n">
         <v>22530013</v>
       </c>
-      <c r="G45" s="6" t="n"/>
+      <c r="G45" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="H45" s="5" t="n"/>
-      <c r="L45" s="9" t="n">
+      <c r="L45" s="10" t="n">
         <v>45877</v>
       </c>
-      <c r="M45" s="9" t="n">
+      <c r="M45" s="10" t="n">
         <v>45883</v>
       </c>
-      <c r="N45" s="9" t="n">
+      <c r="N45" s="10" t="n">
         <v>45883</v>
       </c>
-      <c r="O45" s="9" t="n">
+      <c r="O45" s="10" t="n">
         <v>45883</v>
       </c>
-      <c r="P45" s="9" t="n">
+      <c r="P45" s="10" t="n">
         <v>45883</v>
       </c>
-      <c r="Q45" s="9" t="n">
+      <c r="Q45" s="10" t="n">
         <v>45883</v>
       </c>
-      <c r="Y45" s="9" t="n">
+      <c r="Y45" s="10" t="n">
         <v>45883</v>
       </c>
-      <c r="Z45" s="9" t="n">
+      <c r="Z45" s="10" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -3644,57 +3735,59 @@
           <t>MCB 3080</t>
         </is>
       </c>
-      <c r="E46" s="12" t="inlineStr">
+      <c r="E46" s="13" t="inlineStr">
         <is>
           <t>B.06001 - RE001</t>
         </is>
       </c>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="6" t="n"/>
+      <c r="F46" s="14" t="n"/>
+      <c r="G46" s="9" t="n">
+        <v>-21</v>
+      </c>
       <c r="H46" s="5" t="n"/>
-      <c r="N46" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O46" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P46" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q46" s="9" t="n">
+      <c r="N46" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O46" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P46" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="R46" s="9" t="n">
+      <c r="R46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="S46" s="9" t="n">
+      <c r="S46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="T46" s="9" t="n">
+      <c r="T46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="U46" s="9" t="n">
+      <c r="U46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="V46" s="9" t="n">
+      <c r="V46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="W46" s="9" t="n">
+      <c r="W46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="X46" s="9" t="n">
+      <c r="X46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Y46" s="9" t="n">
+      <c r="Y46" s="10" t="n">
         <v>45908</v>
       </c>
-      <c r="Z46" s="9" t="n">
+      <c r="Z46" s="10" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -3722,55 +3815,57 @@
           <t>B.23029 - RE001</t>
         </is>
       </c>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="14" t="n"/>
+      <c r="G47" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" s="5" t="n"/>
-      <c r="M47" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N47" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O47" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P47" s="9" t="n">
+      <c r="M47" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N47" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O47" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P47" s="10" t="n">
         <v>45916</v>
       </c>
-      <c r="Q47" s="9" t="n">
+      <c r="Q47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="R47" s="9" t="n">
+      <c r="R47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="S47" s="9" t="n">
+      <c r="S47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="T47" s="9" t="n">
+      <c r="T47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="U47" s="9" t="n">
+      <c r="U47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="V47" s="9" t="n">
+      <c r="V47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="W47" s="9" t="n">
+      <c r="W47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="X47" s="9" t="n">
+      <c r="X47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="Y47" s="9" t="n">
+      <c r="Y47" s="10" t="n">
         <v>45887</v>
       </c>
-      <c r="Z47" s="9" t="n">
+      <c r="Z47" s="10" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -3801,46 +3896,48 @@
       <c r="F48" s="6" t="n">
         <v>22540198</v>
       </c>
-      <c r="G48" s="6" t="n"/>
+      <c r="G48" s="9" t="n">
+        <v>-8</v>
+      </c>
       <c r="H48" s="5" t="n"/>
-      <c r="N48" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O48" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P48" s="9" t="n">
+      <c r="N48" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O48" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P48" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="Q48" s="9" t="n">
+      <c r="Q48" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="R48" s="9" t="n">
+      <c r="R48" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="S48" s="9" t="n">
+      <c r="S48" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="T48" s="9" t="n">
+      <c r="T48" s="10" t="n">
         <v>45902</v>
       </c>
-      <c r="U48" s="9" t="n">
+      <c r="U48" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="V48" s="9" t="n">
+      <c r="V48" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="W48" s="9" t="n">
+      <c r="W48" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="Y48" s="9" t="n">
+      <c r="Y48" s="10" t="n">
         <v>45895</v>
       </c>
-      <c r="Z48" s="9" t="n">
+      <c r="Z48" s="10" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -3853,7 +3950,7 @@
       <c r="B49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="10" t="n"/>
+      <c r="C49" s="11" t="n"/>
       <c r="D49" s="7" t="inlineStr">
         <is>
           <t>MCA 3022</t>
@@ -3867,22 +3964,22 @@
       </c>
       <c r="G49" s="6" t="n"/>
       <c r="H49" s="5" t="n"/>
-      <c r="M49" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N49" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O49" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Z49" s="9" t="n">
+      <c r="M49" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N49" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O49" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Z49" s="10" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -3913,51 +4010,53 @@
       <c r="F50" s="6" t="n">
         <v>22540123</v>
       </c>
-      <c r="G50" s="6" t="n"/>
+      <c r="G50" s="9" t="n">
+        <v>139</v>
+      </c>
       <c r="H50" s="5" t="n"/>
-      <c r="I50" s="9" t="n">
+      <c r="I50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="K50" s="9" t="n">
+      <c r="K50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="L50" s="9" t="n">
+      <c r="L50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="M50" s="9" t="n">
+      <c r="M50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="N50" s="9" t="n">
+      <c r="N50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="O50" s="9" t="n">
+      <c r="O50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="P50" s="9" t="n">
+      <c r="P50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="Q50" s="9" t="n">
+      <c r="Q50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="R50" s="9" t="n">
+      <c r="R50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="S50" s="9" t="n">
+      <c r="S50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="T50" s="9" t="n">
+      <c r="T50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="U50" s="9" t="n">
+      <c r="U50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="Y50" s="9" t="n">
+      <c r="Y50" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="Z50" s="9" t="n">
+      <c r="Z50" s="10" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -3985,68 +4084,70 @@
           <t>B.22029 - RE002</t>
         </is>
       </c>
-      <c r="F51" s="15" t="n"/>
-      <c r="G51" s="6" t="n"/>
+      <c r="F51" s="16" t="n"/>
+      <c r="G51" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" s="5" t="n"/>
-      <c r="M51" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N51" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O51" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P51" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q51" s="9" t="n">
+      <c r="M51" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N51" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O51" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P51" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="R51" s="9" t="n">
+      <c r="R51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="S51" s="9" t="n">
+      <c r="S51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="T51" s="9" t="n">
+      <c r="T51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="U51" s="9" t="n">
+      <c r="U51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="V51" s="9" t="n">
+      <c r="V51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="W51" s="9" t="n">
+      <c r="W51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="X51" s="9" t="n">
+      <c r="X51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="Y51" s="9" t="n">
+      <c r="Y51" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="Z51" s="9" t="n">
+      <c r="Z51" s="10" t="n">
         <v>45876</v>
       </c>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="16" t="n">
+      <c r="A52" s="17" t="n">
         <v>60012920</v>
       </c>
       <c r="B52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="10" t="n"/>
+      <c r="C52" s="11" t="n"/>
       <c r="D52" s="7" t="inlineStr">
         <is>
           <t>MCP 14</t>
@@ -4057,46 +4158,48 @@
           <t>P.21015</t>
         </is>
       </c>
-      <c r="F52" s="15" t="n"/>
-      <c r="G52" s="6" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" s="5" t="n"/>
-      <c r="N52" s="9" t="n">
+      <c r="N52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="O52" s="9" t="n">
+      <c r="O52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="P52" s="9" t="n">
+      <c r="P52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="Q52" s="9" t="n">
+      <c r="Q52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="R52" s="9" t="n">
+      <c r="R52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="S52" s="9" t="n">
+      <c r="S52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="T52" s="9" t="n">
+      <c r="T52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="U52" s="9" t="n">
+      <c r="U52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="V52" s="9" t="n">
+      <c r="V52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="W52" s="9" t="n">
+      <c r="W52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="X52" s="9" t="n">
+      <c r="X52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="Y52" s="9" t="n">
+      <c r="Y52" s="10" t="n">
         <v>45874</v>
       </c>
-      <c r="Z52" s="9" t="n">
+      <c r="Z52" s="10" t="n">
         <v>45874</v>
       </c>
     </row>
@@ -4127,60 +4230,62 @@
       <c r="F53" s="6" t="n">
         <v>22520022</v>
       </c>
-      <c r="G53" s="6" t="n"/>
+      <c r="G53" s="9" t="n">
+        <v>33</v>
+      </c>
       <c r="H53" s="5" t="n"/>
-      <c r="I53" s="9" t="n">
+      <c r="I53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="K53" s="9" t="n">
+      <c r="K53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="L53" s="9" t="n">
+      <c r="L53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="M53" s="9" t="n">
+      <c r="M53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="N53" s="9" t="n">
+      <c r="N53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="O53" s="9" t="n">
+      <c r="O53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="P53" s="9" t="n">
+      <c r="P53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="Q53" s="9" t="n">
+      <c r="Q53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="R53" s="9" t="n">
+      <c r="R53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="S53" s="9" t="n">
+      <c r="S53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="T53" s="9" t="n">
+      <c r="T53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="U53" s="9" t="n">
+      <c r="U53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="V53" s="9" t="n">
+      <c r="V53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="W53" s="9" t="n">
+      <c r="W53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="X53" s="9" t="n">
+      <c r="X53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="Y53" s="9" t="n">
+      <c r="Y53" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="Z53" s="9" t="n">
+      <c r="Z53" s="10" t="n">
         <v>45873</v>
       </c>
     </row>
@@ -4211,60 +4316,62 @@
       <c r="F54" s="6" t="n">
         <v>22540156</v>
       </c>
-      <c r="G54" s="6" t="n"/>
+      <c r="G54" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" s="5" t="n"/>
-      <c r="I54" s="9" t="n">
+      <c r="I54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="J54" s="9" t="n">
+      <c r="J54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="K54" s="9" t="n">
+      <c r="K54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="L54" s="9" t="n">
+      <c r="L54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="M54" s="9" t="n">
+      <c r="M54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="N54" s="9" t="n">
+      <c r="N54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="O54" s="9" t="n">
+      <c r="O54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="P54" s="9" t="n">
+      <c r="P54" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="Q54" s="9" t="n">
+      <c r="Q54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="R54" s="9" t="n">
+      <c r="R54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="S54" s="9" t="n">
+      <c r="S54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="T54" s="9" t="n">
+      <c r="T54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="U54" s="9" t="n">
+      <c r="U54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="V54" s="9" t="n">
+      <c r="V54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="W54" s="9" t="n">
+      <c r="W54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="X54" s="9" t="n">
+      <c r="X54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="Y54" s="9" t="n">
+      <c r="Y54" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="Z54" s="9" t="n">
+      <c r="Z54" s="10" t="n">
         <v>45870</v>
       </c>
     </row>
@@ -4295,53 +4402,55 @@
       <c r="F55" s="6" t="n">
         <v>22540189</v>
       </c>
-      <c r="G55" s="6" t="n"/>
+      <c r="G55" s="9" t="n">
+        <v>-3</v>
+      </c>
       <c r="H55" s="5" t="n"/>
-      <c r="L55" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M55" s="9" t="n">
+      <c r="L55" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="N55" s="9" t="n">
+      <c r="N55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="O55" s="9" t="n">
+      <c r="O55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="P55" s="9" t="n">
+      <c r="P55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="Q55" s="9" t="n">
+      <c r="Q55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="R55" s="9" t="n">
+      <c r="R55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="S55" s="9" t="n">
+      <c r="S55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="T55" s="9" t="n">
+      <c r="T55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="U55" s="9" t="n">
+      <c r="U55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="V55" s="9" t="n">
+      <c r="V55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="W55" s="9" t="n">
+      <c r="W55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="X55" s="9" t="n">
+      <c r="X55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="Y55" s="9" t="n">
+      <c r="Y55" s="10" t="n">
         <v>45873</v>
       </c>
-      <c r="Z55" s="9" t="n">
+      <c r="Z55" s="10" t="n">
         <v>45870</v>
       </c>
     </row>
@@ -4372,60 +4481,62 @@
       <c r="F56" s="6" t="n">
         <v>22540145</v>
       </c>
-      <c r="G56" s="6" t="n"/>
+      <c r="G56" s="9" t="n">
+        <v>72</v>
+      </c>
       <c r="H56" s="5" t="n"/>
-      <c r="I56" s="9" t="n">
+      <c r="I56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="K56" s="9" t="n">
+      <c r="K56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="L56" s="9" t="n">
+      <c r="L56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="M56" s="9" t="n">
+      <c r="M56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="N56" s="9" t="n">
+      <c r="N56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="O56" s="9" t="n">
+      <c r="O56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="P56" s="9" t="n">
+      <c r="P56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="Q56" s="9" t="n">
+      <c r="Q56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="R56" s="9" t="n">
+      <c r="R56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="S56" s="9" t="n">
+      <c r="S56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="T56" s="9" t="n">
+      <c r="T56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="U56" s="9" t="n">
+      <c r="U56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="V56" s="9" t="n">
+      <c r="V56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="W56" s="9" t="n">
+      <c r="W56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="X56" s="9" t="n">
+      <c r="X56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="Y56" s="9" t="n">
+      <c r="Y56" s="10" t="n">
         <v>45797</v>
       </c>
-      <c r="Z56" s="9" t="n">
+      <c r="Z56" s="10" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -4456,44 +4567,46 @@
       <c r="F57" s="6" t="n">
         <v>22540193</v>
       </c>
-      <c r="G57" s="6" t="n"/>
+      <c r="G57" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H57" s="5" t="n"/>
-      <c r="M57" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N57" s="9" t="n">
+      <c r="M57" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="O57" s="9" t="n">
+      <c r="O57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="P57" s="9" t="n">
+      <c r="P57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Q57" s="9" t="n">
+      <c r="Q57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="R57" s="9" t="n">
+      <c r="R57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="S57" s="9" t="n">
+      <c r="S57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="T57" s="9" t="n">
+      <c r="T57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="U57" s="9" t="n">
+      <c r="U57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="V57" s="9" t="n">
+      <c r="V57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Y57" s="9" t="n">
+      <c r="Y57" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Z57" s="9" t="n">
+      <c r="Z57" s="10" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -4524,41 +4637,43 @@
       <c r="F58" s="6" t="n">
         <v>22540192</v>
       </c>
-      <c r="G58" s="6" t="n"/>
+      <c r="G58" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" s="5" t="n"/>
-      <c r="M58" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N58" s="9" t="n">
+      <c r="M58" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="O58" s="9" t="n">
+      <c r="O58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="P58" s="9" t="n">
+      <c r="P58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Q58" s="9" t="n">
+      <c r="Q58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="R58" s="9" t="n">
+      <c r="R58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="S58" s="9" t="n">
+      <c r="S58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="T58" s="9" t="n">
+      <c r="T58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="U58" s="9" t="n">
+      <c r="U58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Y58" s="9" t="n">
+      <c r="Y58" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Z58" s="9" t="n">
+      <c r="Z58" s="10" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -4587,37 +4702,39 @@
       <c r="F59" s="6" t="n">
         <v>22540190</v>
       </c>
-      <c r="G59" s="6" t="n"/>
+      <c r="G59" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" s="5" t="n"/>
-      <c r="L59" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M59" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N59" s="9" t="n">
+      <c r="L59" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M59" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N59" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="O59" s="9" t="n">
+      <c r="O59" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="P59" s="9" t="n">
+      <c r="P59" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Q59" s="9" t="n">
+      <c r="Q59" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="R59" s="9" t="n">
+      <c r="R59" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Y59" s="9" t="n">
+      <c r="Y59" s="10" t="n">
         <v>45869</v>
       </c>
-      <c r="Z59" s="9" t="n">
+      <c r="Z59" s="10" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -4648,60 +4765,62 @@
       <c r="F60" s="6" t="n">
         <v>22520019</v>
       </c>
-      <c r="G60" s="6" t="n"/>
+      <c r="G60" s="9" t="n">
+        <v>64</v>
+      </c>
       <c r="H60" s="5" t="n"/>
-      <c r="I60" s="9" t="n">
+      <c r="I60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="J60" s="9" t="n">
+      <c r="J60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="K60" s="9" t="n">
+      <c r="K60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="L60" s="9" t="n">
+      <c r="L60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="M60" s="9" t="n">
+      <c r="M60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="N60" s="9" t="n">
+      <c r="N60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="O60" s="9" t="n">
+      <c r="O60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="P60" s="9" t="n">
+      <c r="P60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="Q60" s="9" t="n">
+      <c r="Q60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="R60" s="9" t="n">
+      <c r="R60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="S60" s="9" t="n">
+      <c r="S60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="T60" s="9" t="n">
+      <c r="T60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="U60" s="9" t="n">
+      <c r="U60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="V60" s="9" t="n">
+      <c r="V60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="W60" s="9" t="n">
+      <c r="W60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="X60" s="9" t="n">
+      <c r="X60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="Y60" s="9" t="n">
+      <c r="Y60" s="10" t="n">
         <v>45803</v>
       </c>
-      <c r="Z60" s="9" t="n">
+      <c r="Z60" s="10" t="n">
         <v>45867</v>
       </c>
     </row>
@@ -4729,57 +4848,59 @@
           <t>B.22029 - RE002</t>
         </is>
       </c>
-      <c r="F61" s="15" t="n"/>
-      <c r="G61" s="6" t="n"/>
+      <c r="F61" s="16" t="n"/>
+      <c r="G61" s="9" t="n">
+        <v>-10</v>
+      </c>
       <c r="H61" s="5" t="n"/>
-      <c r="M61" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N61" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="O61" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="P61" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Q61" s="9" t="n">
+      <c r="M61" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N61" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="O61" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="P61" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Q61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="R61" s="9" t="n">
+      <c r="R61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="S61" s="9" t="n">
+      <c r="S61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="T61" s="9" t="n">
+      <c r="T61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="U61" s="9" t="n">
+      <c r="U61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="V61" s="9" t="n">
+      <c r="V61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="W61" s="9" t="n">
+      <c r="W61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="X61" s="9" t="n">
+      <c r="X61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="Y61" s="9" t="n">
+      <c r="Y61" s="10" t="n">
         <v>45876</v>
       </c>
-      <c r="Z61" s="9" t="n">
+      <c r="Z61" s="10" t="n">
         <v>45866</v>
       </c>
     </row>
@@ -4792,7 +4913,7 @@
       <c r="B62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C62" s="10" t="n"/>
+      <c r="C62" s="11" t="n"/>
       <c r="D62" s="7" t="inlineStr">
         <is>
           <t>MCB 4034</t>
@@ -4803,56 +4924,58 @@
           <t>B.08011 - RE001</t>
         </is>
       </c>
-      <c r="F62" s="15" t="n"/>
-      <c r="G62" s="6" t="n"/>
+      <c r="F62" s="16" t="n"/>
+      <c r="G62" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" s="5" t="n"/>
-      <c r="L62" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M62" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N62" s="9" t="n">
+      <c r="L62" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M62" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="O62" s="9" t="n">
+      <c r="O62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="P62" s="9" t="n">
+      <c r="P62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Q62" s="9" t="n">
+      <c r="Q62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="R62" s="9" t="n">
+      <c r="R62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="S62" s="9" t="n">
+      <c r="S62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="T62" s="9" t="n">
+      <c r="T62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="U62" s="9" t="n">
+      <c r="U62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="V62" s="9" t="n">
+      <c r="V62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="W62" s="9" t="n">
+      <c r="W62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="X62" s="9" t="n">
+      <c r="X62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Y62" s="9" t="n">
+      <c r="Y62" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Z62" s="9" t="n">
+      <c r="Z62" s="10" t="n">
         <v>45866</v>
       </c>
     </row>
@@ -4880,47 +5003,49 @@
           <t>B.24014 - RE001</t>
         </is>
       </c>
-      <c r="F63" s="15" t="n"/>
-      <c r="G63" s="6" t="n"/>
+      <c r="F63" s="16" t="n"/>
+      <c r="G63" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" s="5" t="n"/>
-      <c r="L63" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M63" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N63" s="9" t="n">
+      <c r="L63" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M63" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="O63" s="9" t="n">
+      <c r="O63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="P63" s="9" t="n">
+      <c r="P63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Q63" s="9" t="n">
+      <c r="Q63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="R63" s="9" t="n">
+      <c r="R63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="S63" s="9" t="n">
+      <c r="S63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="T63" s="9" t="n">
+      <c r="T63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="U63" s="9" t="n">
+      <c r="U63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Y63" s="9" t="n">
+      <c r="Y63" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Z63" s="9" t="n">
+      <c r="Z63" s="10" t="n">
         <v>45866</v>
       </c>
     </row>
@@ -4948,47 +5073,49 @@
           <t>B.24005 - RE001</t>
         </is>
       </c>
-      <c r="F64" s="15" t="n"/>
-      <c r="G64" s="6" t="n"/>
+      <c r="F64" s="16" t="n"/>
+      <c r="G64" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" s="5" t="n"/>
-      <c r="L64" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="M64" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="N64" s="9" t="n">
+      <c r="L64" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="M64" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="N64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="O64" s="9" t="n">
+      <c r="O64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="P64" s="9" t="n">
+      <c r="P64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Q64" s="9" t="n">
+      <c r="Q64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="R64" s="9" t="n">
+      <c r="R64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="S64" s="9" t="n">
+      <c r="S64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="T64" s="9" t="n">
+      <c r="T64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="U64" s="9" t="n">
+      <c r="U64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Y64" s="9" t="n">
+      <c r="Y64" s="10" t="n">
         <v>45866</v>
       </c>
-      <c r="Z64" s="9" t="n">
+      <c r="Z64" s="10" t="n">
         <v>45866</v>
       </c>
     </row>
@@ -5019,60 +5146,62 @@
       <c r="F65" s="6" t="n">
         <v>22540177</v>
       </c>
-      <c r="G65" s="6" t="n"/>
+      <c r="G65" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" s="5" t="n"/>
-      <c r="I65" s="9" t="n">
+      <c r="I65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="K65" s="9" t="n">
+      <c r="K65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="L65" s="9" t="n">
+      <c r="L65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="M65" s="9" t="n">
+      <c r="M65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="N65" s="9" t="n">
+      <c r="N65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="O65" s="9" t="n">
+      <c r="O65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="P65" s="9" t="n">
+      <c r="P65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="Q65" s="9" t="n">
+      <c r="Q65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="R65" s="9" t="n">
+      <c r="R65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="S65" s="9" t="n">
+      <c r="S65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="T65" s="9" t="n">
+      <c r="T65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="U65" s="9" t="n">
+      <c r="U65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="V65" s="9" t="n">
+      <c r="V65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="W65" s="9" t="n">
+      <c r="W65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="X65" s="9" t="n">
+      <c r="X65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="Y65" s="9" t="n">
+      <c r="Y65" s="10" t="n">
         <v>45863</v>
       </c>
-      <c r="Z65" s="9" t="n">
+      <c r="Z65" s="10" t="n">
         <v>45863</v>
       </c>
     </row>
@@ -5100,63 +5229,65 @@
           <t>B.25037</t>
         </is>
       </c>
-      <c r="F66" s="11" t="n">
+      <c r="F66" s="12" t="n">
         <v>22540180</v>
       </c>
-      <c r="G66" s="6" t="n"/>
+      <c r="G66" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="H66" s="5" t="n"/>
-      <c r="I66" s="9" t="n">
+      <c r="I66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="K66" s="9" t="n">
+      <c r="K66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="L66" s="9" t="n">
+      <c r="L66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="M66" s="9" t="n">
+      <c r="M66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="N66" s="9" t="n">
+      <c r="N66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="O66" s="9" t="n">
+      <c r="O66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="P66" s="9" t="n">
+      <c r="P66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Q66" s="9" t="n">
+      <c r="Q66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="R66" s="9" t="n">
+      <c r="R66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="S66" s="9" t="n">
+      <c r="S66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="T66" s="9" t="n">
+      <c r="T66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="U66" s="9" t="n">
+      <c r="U66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="V66" s="9" t="n">
+      <c r="V66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="W66" s="9" t="n">
+      <c r="W66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="X66" s="9" t="n">
+      <c r="X66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Y66" s="9" t="n">
+      <c r="Y66" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Z66" s="9" t="n">
+      <c r="Z66" s="10" t="n">
         <v>45862</v>
       </c>
     </row>
@@ -5179,15 +5310,15 @@
           <t>MCB 4065</t>
         </is>
       </c>
-      <c r="E67" s="12" t="inlineStr">
+      <c r="E67" s="13" t="inlineStr">
         <is>
           <t>B.06036 - RE001</t>
         </is>
       </c>
-      <c r="F67" s="13" t="n"/>
+      <c r="F67" s="14" t="n"/>
       <c r="G67" s="6" t="n"/>
       <c r="H67" s="5" t="n"/>
-      <c r="Z67" s="9" t="n">
+      <c r="Z67" s="10" t="n">
         <v>45860</v>
       </c>
     </row>
@@ -5216,54 +5347,56 @@
       <c r="F68" s="6" t="n">
         <v>22540179</v>
       </c>
-      <c r="G68" s="6" t="n"/>
+      <c r="G68" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="H68" s="5" t="n"/>
-      <c r="I68" s="9" t="n">
+      <c r="I68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="K68" s="9" t="n">
+      <c r="K68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="L68" s="9" t="n">
+      <c r="L68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="M68" s="9" t="n">
+      <c r="M68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="N68" s="9" t="n">
+      <c r="N68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="O68" s="9" t="n">
+      <c r="O68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="P68" s="9" t="n">
+      <c r="P68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="Q68" s="9" t="n">
+      <c r="Q68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="R68" s="9" t="n">
+      <c r="R68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="S68" s="9" t="n">
+      <c r="S68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="T68" s="9" t="n">
+      <c r="T68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="U68" s="9" t="n">
+      <c r="U68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="V68" s="9" t="n">
+      <c r="V68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="Y68" s="9" t="n">
+      <c r="Y68" s="10" t="n">
         <v>45838</v>
       </c>
-      <c r="Z68" s="9" t="n">
+      <c r="Z68" s="10" t="n">
         <v>45860</v>
       </c>
     </row>
@@ -5276,7 +5409,7 @@
       <c r="B69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="10" t="n"/>
+      <c r="C69" s="11" t="n"/>
       <c r="D69" s="7" t="inlineStr">
         <is>
           <t>MCB Q30</t>
@@ -5288,30 +5421,32 @@
       <c r="F69" s="6" t="n">
         <v>22540188</v>
       </c>
-      <c r="G69" s="6" t="n"/>
+      <c r="G69" s="9" t="n">
+        <v>-108</v>
+      </c>
       <c r="H69" s="5" t="n"/>
-      <c r="S69" s="9" t="n">
+      <c r="S69" s="10" t="n">
         <v>45952</v>
       </c>
-      <c r="T69" s="9" t="n">
+      <c r="T69" s="10" t="n">
         <v>45952</v>
       </c>
-      <c r="U69" s="9" t="n">
+      <c r="U69" s="10" t="n">
         <v>45952</v>
       </c>
-      <c r="V69" s="9" t="n">
+      <c r="V69" s="10" t="n">
         <v>45952</v>
       </c>
-      <c r="W69" s="9" t="n">
+      <c r="W69" s="10" t="n">
         <v>45968</v>
       </c>
-      <c r="X69" s="9" t="n">
+      <c r="X69" s="10" t="n">
         <v>45968</v>
       </c>
-      <c r="Y69" s="9" t="n">
+      <c r="Y69" s="10" t="n">
         <v>45968</v>
       </c>
-      <c r="Z69" s="9" t="n">
+      <c r="Z69" s="10" t="n">
         <v>45860</v>
       </c>
     </row>
@@ -5342,57 +5477,59 @@
       <c r="F70" s="6" t="n">
         <v>22540181</v>
       </c>
-      <c r="G70" s="6" t="n"/>
+      <c r="G70" s="9" t="n">
+        <v>-2</v>
+      </c>
       <c r="H70" s="5" t="n"/>
-      <c r="J70" s="9" t="n">
+      <c r="J70" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="K70" s="9" t="n">
+      <c r="K70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="L70" s="9" t="n">
+      <c r="L70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="M70" s="9" t="n">
+      <c r="M70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="N70" s="9" t="n">
+      <c r="N70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="O70" s="9" t="n">
+      <c r="O70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="P70" s="9" t="n">
+      <c r="P70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="Q70" s="9" t="n">
+      <c r="Q70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="R70" s="9" t="n">
+      <c r="R70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="S70" s="9" t="n">
+      <c r="S70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="T70" s="9" t="n">
+      <c r="T70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="U70" s="9" t="n">
+      <c r="U70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="V70" s="9" t="n">
+      <c r="V70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="W70" s="9" t="n">
+      <c r="W70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="X70" s="9" t="n">
+      <c r="X70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="Y70" s="9" t="n">
+      <c r="Y70" s="10" t="n">
         <v>45861</v>
       </c>
-      <c r="Z70" s="9" t="n">
+      <c r="Z70" s="10" t="n">
         <v>45859</v>
       </c>
     </row>
@@ -5423,60 +5560,62 @@
       <c r="F71" s="6" t="n">
         <v>22540156</v>
       </c>
-      <c r="G71" s="6" t="n"/>
+      <c r="G71" s="9" t="n">
+        <v>-11</v>
+      </c>
       <c r="H71" s="5" t="n"/>
-      <c r="I71" s="9" t="n">
+      <c r="I71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="J71" s="9" t="n">
+      <c r="J71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="K71" s="9" t="n">
+      <c r="K71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="L71" s="9" t="n">
+      <c r="L71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="M71" s="9" t="n">
+      <c r="M71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="N71" s="9" t="n">
+      <c r="N71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="O71" s="9" t="n">
+      <c r="O71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="P71" s="9" t="n">
+      <c r="P71" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="Q71" s="9" t="n">
+      <c r="Q71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="R71" s="9" t="n">
+      <c r="R71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="S71" s="9" t="n">
+      <c r="S71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="T71" s="9" t="n">
+      <c r="T71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="U71" s="9" t="n">
+      <c r="U71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="V71" s="9" t="n">
+      <c r="V71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="W71" s="9" t="n">
+      <c r="W71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="X71" s="9" t="n">
+      <c r="X71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="Y71" s="9" t="n">
+      <c r="Y71" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="Z71" s="9" t="n">
+      <c r="Z71" s="10" t="n">
         <v>45859</v>
       </c>
     </row>
@@ -5505,21 +5644,23 @@
       <c r="F72" s="6" t="n">
         <v>22540184</v>
       </c>
-      <c r="G72" s="6" t="n"/>
+      <c r="G72" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H72" s="5" t="n"/>
-      <c r="K72" s="9" t="n">
+      <c r="K72" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="L72" s="9" t="n">
+      <c r="L72" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="M72" s="9" t="n">
+      <c r="M72" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Y72" s="9" t="n">
+      <c r="Y72" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Z72" s="9" t="n">
+      <c r="Z72" s="10" t="n">
         <v>45855</v>
       </c>
     </row>
@@ -5532,7 +5673,7 @@
       <c r="B73" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C73" s="10" t="n"/>
+      <c r="C73" s="11" t="n"/>
       <c r="D73" s="7" t="inlineStr">
         <is>
           <t>MCE-A 2020</t>
@@ -5544,30 +5685,32 @@
       <c r="F73" s="6" t="n">
         <v>22540183</v>
       </c>
-      <c r="G73" s="6" t="n"/>
+      <c r="G73" s="9" t="n">
+        <v>-2</v>
+      </c>
       <c r="H73" s="5" t="n"/>
-      <c r="K73" s="9" t="n">
+      <c r="K73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="L73" s="9" t="n">
+      <c r="L73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="M73" s="9" t="n">
+      <c r="M73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="N73" s="9" t="n">
+      <c r="N73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="O73" s="9" t="n">
+      <c r="O73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="P73" s="9" t="n">
+      <c r="P73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Y73" s="9" t="n">
+      <c r="Y73" s="10" t="n">
         <v>45856</v>
       </c>
-      <c r="Z73" s="9" t="n">
+      <c r="Z73" s="10" t="n">
         <v>45854</v>
       </c>
     </row>
@@ -5598,12 +5741,12 @@
       </c>
       <c r="G74" s="6" t="n"/>
       <c r="H74" s="5" t="n"/>
-      <c r="K74" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="Z74" s="9" t="n">
+      <c r="K74" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="Z74" s="10" t="n">
         <v>45854</v>
       </c>
     </row>
@@ -5634,54 +5777,56 @@
       <c r="F75" s="6" t="n">
         <v>22520024</v>
       </c>
-      <c r="G75" s="6" t="n"/>
+      <c r="G75" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H75" s="5" t="n"/>
-      <c r="K75" s="9" t="n">
+      <c r="K75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="L75" s="9" t="n">
+      <c r="L75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="M75" s="9" t="n">
+      <c r="M75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="N75" s="9" t="n">
+      <c r="N75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="O75" s="9" t="n">
+      <c r="O75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="P75" s="9" t="n">
+      <c r="P75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="Q75" s="9" t="n">
+      <c r="Q75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="R75" s="9" t="n">
+      <c r="R75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="S75" s="9" t="n">
+      <c r="S75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="T75" s="9" t="n">
+      <c r="T75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="U75" s="9" t="n">
+      <c r="U75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="V75" s="9" t="n">
+      <c r="V75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="W75" s="9" t="n">
+      <c r="W75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="X75" s="9" t="n">
+      <c r="X75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="Y75" s="9" t="n">
+      <c r="Y75" s="10" t="n">
         <v>45855</v>
       </c>
-      <c r="Z75" s="9" t="n">
+      <c r="Z75" s="10" t="n">
         <v>45854</v>
       </c>
     </row>
@@ -5712,60 +5857,62 @@
       <c r="F76" s="6" t="n">
         <v>22540115</v>
       </c>
-      <c r="G76" s="6" t="n"/>
+      <c r="G76" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="H76" s="5" t="n"/>
-      <c r="I76" s="9" t="n">
+      <c r="I76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="J76" s="9" t="n">
+      <c r="J76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="K76" s="9" t="n">
+      <c r="K76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="L76" s="9" t="n">
+      <c r="L76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="M76" s="9" t="n">
+      <c r="M76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="N76" s="9" t="n">
+      <c r="N76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="O76" s="9" t="n">
+      <c r="O76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="P76" s="9" t="n">
+      <c r="P76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Q76" s="9" t="n">
+      <c r="Q76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="R76" s="9" t="n">
+      <c r="R76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="S76" s="9" t="n">
+      <c r="S76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="T76" s="9" t="n">
+      <c r="T76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="U76" s="9" t="n">
+      <c r="U76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="V76" s="9" t="n">
+      <c r="V76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="W76" s="9" t="n">
+      <c r="W76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="X76" s="9" t="n">
+      <c r="X76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Y76" s="9" t="n">
+      <c r="Y76" s="10" t="n">
         <v>45845</v>
       </c>
-      <c r="Z76" s="9" t="n">
+      <c r="Z76" s="10" t="n">
         <v>45853</v>
       </c>
     </row>
@@ -5796,60 +5943,62 @@
       <c r="F77" s="6" t="n">
         <v>22540162</v>
       </c>
-      <c r="G77" s="6" t="n"/>
+      <c r="G77" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="H77" s="5" t="n"/>
-      <c r="I77" s="9" t="n">
+      <c r="I77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="J77" s="9" t="n">
+      <c r="J77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="K77" s="9" t="n">
+      <c r="K77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="L77" s="9" t="n">
+      <c r="L77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="M77" s="9" t="n">
+      <c r="M77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="N77" s="9" t="n">
+      <c r="N77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="O77" s="9" t="n">
+      <c r="O77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="P77" s="9" t="n">
+      <c r="P77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="Q77" s="9" t="n">
+      <c r="Q77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="R77" s="9" t="n">
+      <c r="R77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="S77" s="9" t="n">
+      <c r="S77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="T77" s="9" t="n">
+      <c r="T77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="U77" s="9" t="n">
+      <c r="U77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="V77" s="9" t="n">
+      <c r="V77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="W77" s="9" t="n">
+      <c r="W77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="X77" s="9" t="n">
+      <c r="X77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="Y77" s="9" t="n">
+      <c r="Y77" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="Z77" s="9" t="n">
+      <c r="Z77" s="10" t="n">
         <v>45853</v>
       </c>
     </row>
@@ -5877,58 +6026,60 @@
           <t>A.24034</t>
         </is>
       </c>
-      <c r="F78" s="17" t="n">
+      <c r="F78" s="18" t="n">
         <v>22540182</v>
       </c>
-      <c r="G78" s="6" t="n"/>
+      <c r="G78" s="9" t="n">
+        <v>-8</v>
+      </c>
       <c r="H78" s="5" t="n"/>
-      <c r="J78" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="K78" s="9" t="inlineStr">
-        <is>
-          <t>KOM</t>
-        </is>
-      </c>
-      <c r="L78" s="9" t="n">
+      <c r="J78" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="K78" s="10" t="inlineStr">
+        <is>
+          <t>KOM</t>
+        </is>
+      </c>
+      <c r="L78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="M78" s="9" t="n">
+      <c r="M78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="N78" s="9" t="n">
+      <c r="N78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="O78" s="9" t="n">
+      <c r="O78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="P78" s="9" t="n">
+      <c r="P78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="Q78" s="9" t="n">
+      <c r="Q78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="R78" s="9" t="n">
+      <c r="R78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="S78" s="9" t="n">
+      <c r="S78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="T78" s="9" t="n">
+      <c r="T78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="U78" s="9" t="n">
+      <c r="U78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="V78" s="9" t="n">
+      <c r="V78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="Y78" s="9" t="n">
+      <c r="Y78" s="10" t="n">
         <v>45860</v>
       </c>
-      <c r="Z78" s="9" t="n">
+      <c r="Z78" s="10" t="n">
         <v>45852</v>
       </c>
     </row>
@@ -5959,60 +6110,62 @@
       <c r="F79" s="6" t="n">
         <v>22540178</v>
       </c>
-      <c r="G79" s="6" t="n"/>
+      <c r="G79" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" s="5" t="n"/>
-      <c r="I79" s="9" t="n">
+      <c r="I79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="J79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="K79" s="9" t="n">
+      <c r="K79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="L79" s="9" t="n">
+      <c r="L79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="M79" s="9" t="n">
+      <c r="M79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="N79" s="9" t="n">
+      <c r="N79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="O79" s="9" t="n">
+      <c r="O79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="P79" s="9" t="n">
+      <c r="P79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="Q79" s="9" t="n">
+      <c r="Q79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="R79" s="9" t="n">
+      <c r="R79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="S79" s="9" t="n">
+      <c r="S79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="T79" s="9" t="n">
+      <c r="T79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="U79" s="9" t="n">
+      <c r="U79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="V79" s="9" t="n">
+      <c r="V79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="W79" s="9" t="n">
+      <c r="W79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="X79" s="9" t="n">
+      <c r="X79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="Y79" s="9" t="n">
+      <c r="Y79" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="Z79" s="9" t="n">
+      <c r="Z79" s="10" t="n">
         <v>45852</v>
       </c>
     </row>
@@ -6041,21 +6194,23 @@
       <c r="F80" s="6" t="n">
         <v>22520023</v>
       </c>
-      <c r="G80" s="6" t="n"/>
+      <c r="G80" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H80" s="5" t="n"/>
-      <c r="K80" s="9" t="n">
+      <c r="K80" s="10" t="n">
         <v>45853</v>
       </c>
-      <c r="L80" s="9" t="n">
+      <c r="L80" s="10" t="n">
         <v>45853</v>
       </c>
-      <c r="M80" s="9" t="n">
+      <c r="M80" s="10" t="n">
         <v>45853</v>
       </c>
-      <c r="Y80" s="9" t="n">
+      <c r="Y80" s="10" t="n">
         <v>45853</v>
       </c>
-      <c r="Z80" s="9" t="n">
+      <c r="Z80" s="10" t="n">
         <v>45852</v>
       </c>
     </row>
@@ -6083,43 +6238,45 @@
           <t>B.24068 - RE001</t>
         </is>
       </c>
-      <c r="F81" s="14" t="n"/>
-      <c r="G81" s="6" t="n"/>
+      <c r="F81" s="15" t="n"/>
+      <c r="G81" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" s="5" t="n"/>
-      <c r="I81" s="9" t="n">
+      <c r="I81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="J81" s="9" t="n">
+      <c r="J81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="K81" s="9" t="n">
+      <c r="K81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="L81" s="9" t="n">
+      <c r="L81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="M81" s="9" t="n">
+      <c r="M81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="N81" s="9" t="n">
+      <c r="N81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="O81" s="9" t="n">
+      <c r="O81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="P81" s="9" t="n">
+      <c r="P81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="Q81" s="9" t="n">
+      <c r="Q81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="R81" s="9" t="n">
+      <c r="R81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="Y81" s="9" t="n">
+      <c r="Y81" s="10" t="n">
         <v>45852</v>
       </c>
-      <c r="Z81" s="9" t="n">
+      <c r="Z81" s="10" t="n">
         <v>45852</v>
       </c>
     </row>
@@ -6147,43 +6304,45 @@
           <t>B.18016 - RE001</t>
         </is>
       </c>
-      <c r="F82" s="14" t="n"/>
-      <c r="G82" s="6" t="n"/>
+      <c r="F82" s="15" t="n"/>
+      <c r="G82" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="H82" s="5" t="n"/>
-      <c r="I82" s="9" t="n">
+      <c r="I82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="J82" s="9" t="n">
+      <c r="J82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="K82" s="9" t="n">
+      <c r="K82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="L82" s="9" t="n">
+      <c r="L82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="M82" s="9" t="n">
+      <c r="M82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="N82" s="9" t="n">
+      <c r="N82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="O82" s="9" t="n">
+      <c r="O82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="P82" s="9" t="n">
+      <c r="P82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="Q82" s="9" t="n">
+      <c r="Q82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="R82" s="9" t="n">
+      <c r="R82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="Y82" s="9" t="n">
+      <c r="Y82" s="10" t="n">
         <v>45846</v>
       </c>
-      <c r="Z82" s="9" t="n">
+      <c r="Z82" s="10" t="n">
         <v>45852</v>
       </c>
     </row>
@@ -6211,43 +6370,45 @@
           <t>B.18017 - RE001</t>
         </is>
       </c>
-      <c r="F83" s="14" t="n"/>
-      <c r="G83" s="6" t="n"/>
+      <c r="F83" s="15" t="n"/>
+      <c r="G83" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="H83" s="5" t="n"/>
-      <c r="I83" s="9" t="n">
+      <c r="I83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="J83" s="9" t="n">
+      <c r="J83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="K83" s="9" t="n">
+      <c r="K83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="L83" s="9" t="n">
+      <c r="L83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="M83" s="9" t="n">
+      <c r="M83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="N83" s="9" t="n">
+      <c r="N83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="O83" s="9" t="n">
+      <c r="O83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="P83" s="9" t="n">
+      <c r="P83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="Q83" s="9" t="n">
+      <c r="Q83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="R83" s="9" t="n">
+      <c r="R83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="Y83" s="9" t="n">
+      <c r="Y83" s="10" t="n">
         <v>45848</v>
       </c>
-      <c r="Z83" s="9" t="n">
+      <c r="Z83" s="10" t="n">
         <v>45852</v>
       </c>
     </row>
@@ -6270,33 +6431,35 @@
           <t>MCA 2522</t>
         </is>
       </c>
-      <c r="E84" s="12" t="inlineStr">
+      <c r="E84" s="13" t="inlineStr">
         <is>
           <t>A.24067 - RE001</t>
         </is>
       </c>
-      <c r="F84" s="14" t="n"/>
-      <c r="G84" s="6" t="n"/>
+      <c r="F84" s="15" t="n"/>
+      <c r="G84" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H84" s="5" t="n"/>
-      <c r="I84" s="9" t="n">
+      <c r="I84" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="J84" s="9" t="n">
+      <c r="J84" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="K84" s="9" t="n">
+      <c r="K84" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="L84" s="9" t="n">
+      <c r="L84" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="M84" s="9" t="n">
+      <c r="M84" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="Y84" s="9" t="n">
+      <c r="Y84" s="10" t="n">
         <v>45849</v>
       </c>
-      <c r="Z84" s="9" t="n">
+      <c r="Z84" s="10" t="n">
         <v>45849</v>
       </c>
     </row>
@@ -6319,66 +6482,68 @@
           <t>MCB 3072/S</t>
         </is>
       </c>
-      <c r="E85" s="12" t="inlineStr">
+      <c r="E85" s="13" t="inlineStr">
         <is>
           <t>B.13013 - RE001</t>
         </is>
       </c>
-      <c r="F85" s="13" t="n"/>
-      <c r="G85" s="6" t="n"/>
+      <c r="F85" s="14" t="n"/>
+      <c r="G85" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H85" s="5" t="n"/>
-      <c r="I85" s="9" t="n">
+      <c r="I85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="J85" s="9" t="n">
+      <c r="J85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="K85" s="9" t="n">
+      <c r="K85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="L85" s="9" t="n">
+      <c r="L85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="M85" s="9" t="n">
+      <c r="M85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="N85" s="9" t="n">
+      <c r="N85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="O85" s="9" t="n">
+      <c r="O85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="P85" s="9" t="n">
+      <c r="P85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="Q85" s="9" t="n">
+      <c r="Q85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="R85" s="9" t="n">
+      <c r="R85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="S85" s="9" t="n">
+      <c r="S85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="T85" s="9" t="n">
+      <c r="T85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="U85" s="9" t="n">
+      <c r="U85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="V85" s="9" t="n">
+      <c r="V85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="W85" s="9" t="n">
+      <c r="W85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="X85" s="9" t="n">
+      <c r="X85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="Y85" s="9" t="n">
+      <c r="Y85" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="Z85" s="9" t="n">
+      <c r="Z85" s="10" t="n">
         <v>45848</v>
       </c>
     </row>
@@ -6406,54 +6571,56 @@
           <t>A.24010</t>
         </is>
       </c>
-      <c r="F86" s="11" t="n">
+      <c r="F86" s="12" t="n">
         <v>22540114</v>
       </c>
-      <c r="G86" s="6" t="n"/>
+      <c r="G86" s="9" t="n">
+        <v>-2</v>
+      </c>
       <c r="H86" s="5" t="n"/>
-      <c r="I86" s="9" t="n">
+      <c r="I86" s="10" t="n">
         <v>45751</v>
       </c>
-      <c r="J86" s="9" t="n">
+      <c r="J86" s="10" t="n">
         <v>45751</v>
       </c>
-      <c r="K86" s="9" t="n">
+      <c r="K86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="L86" s="9" t="n">
+      <c r="L86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="M86" s="9" t="n">
+      <c r="M86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="N86" s="9" t="n">
+      <c r="N86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="O86" s="9" t="n">
+      <c r="O86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="P86" s="9" t="n">
+      <c r="P86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="Q86" s="9" t="n">
+      <c r="Q86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="R86" s="9" t="n">
+      <c r="R86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="S86" s="9" t="n">
+      <c r="S86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="T86" s="9" t="n">
+      <c r="T86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="U86" s="9" t="n">
+      <c r="U86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="Y86" s="9" t="n">
+      <c r="Y86" s="10" t="n">
         <v>45847</v>
       </c>
-      <c r="Z86" s="9" t="n">
+      <c r="Z86" s="10" t="n">
         <v>45845</v>
       </c>
     </row>
@@ -6466,7 +6633,7 @@
       <c r="B87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C87" s="10" t="n"/>
+      <c r="C87" s="11" t="n"/>
       <c r="D87" s="7" t="inlineStr">
         <is>
           <t>MCP 14</t>
@@ -6480,54 +6647,56 @@
       <c r="F87" s="6" t="n">
         <v>22520021</v>
       </c>
-      <c r="G87" s="6" t="n"/>
+      <c r="G87" s="9" t="n">
+        <v>-1</v>
+      </c>
       <c r="H87" s="5" t="n"/>
-      <c r="I87" s="9" t="n">
+      <c r="I87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="J87" s="9" t="n">
+      <c r="J87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="K87" s="9" t="n">
+      <c r="K87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="L87" s="9" t="n">
+      <c r="L87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="M87" s="9" t="n">
+      <c r="M87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="N87" s="9" t="n">
+      <c r="N87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="O87" s="9" t="n">
+      <c r="O87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="P87" s="9" t="n">
+      <c r="P87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="Q87" s="9" t="n">
+      <c r="Q87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="R87" s="9" t="n">
+      <c r="R87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="S87" s="9" t="n">
+      <c r="S87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="T87" s="9" t="n">
+      <c r="T87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="U87" s="9" t="n">
+      <c r="U87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="V87" s="9" t="n">
+      <c r="V87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="Y87" s="9" t="n">
+      <c r="Y87" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="Z87" s="9" t="n">
+      <c r="Z87" s="10" t="n">
         <v>45841</v>
       </c>
     </row>
@@ -6540,7 +6709,7 @@
       <c r="B88" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C88" s="10" t="n"/>
+      <c r="C88" s="11" t="n"/>
       <c r="D88" s="7" t="inlineStr">
         <is>
           <t>MCP 09</t>
@@ -6554,60 +6723,62 @@
       <c r="F88" s="6" t="n">
         <v>22520022</v>
       </c>
-      <c r="G88" s="6" t="n"/>
+      <c r="G88" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" s="5" t="n"/>
-      <c r="I88" s="9" t="n">
+      <c r="I88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="J88" s="9" t="n">
+      <c r="J88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="K88" s="9" t="n">
+      <c r="K88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="L88" s="9" t="n">
+      <c r="L88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="M88" s="9" t="n">
+      <c r="M88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="N88" s="9" t="n">
+      <c r="N88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="O88" s="9" t="n">
+      <c r="O88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="P88" s="9" t="n">
+      <c r="P88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="Q88" s="9" t="n">
+      <c r="Q88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="R88" s="9" t="n">
+      <c r="R88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="S88" s="9" t="n">
+      <c r="S88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="T88" s="9" t="n">
+      <c r="T88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="U88" s="9" t="n">
+      <c r="U88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="V88" s="9" t="n">
+      <c r="V88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="W88" s="9" t="n">
+      <c r="W88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="X88" s="9" t="n">
+      <c r="X88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="Y88" s="9" t="n">
+      <c r="Y88" s="10" t="n">
         <v>45840</v>
       </c>
-      <c r="Z88" s="9" t="n">
+      <c r="Z88" s="10" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -6620,7 +6791,7 @@
       <c r="B89" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C89" s="10" t="n"/>
+      <c r="C89" s="11" t="n"/>
       <c r="D89" s="7" t="inlineStr">
         <is>
           <t>MCE-A 2019</t>
@@ -6632,33 +6803,35 @@
       <c r="F89" s="6" t="n">
         <v>22540175</v>
       </c>
-      <c r="G89" s="6" t="n"/>
+      <c r="G89" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" s="5" t="n"/>
-      <c r="I89" s="9" t="n">
+      <c r="I89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="J89" s="9" t="n">
+      <c r="J89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="K89" s="9" t="n">
+      <c r="K89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="L89" s="9" t="n">
+      <c r="L89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="M89" s="9" t="n">
+      <c r="M89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="N89" s="9" t="n">
+      <c r="N89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="O89" s="9" t="n">
+      <c r="O89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="Y89" s="9" t="n">
+      <c r="Y89" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="Z89" s="9" t="n">
+      <c r="Z89" s="10" t="n">
         <v>45839</v>
       </c>
     </row>
@@ -6671,7 +6844,7 @@
       <c r="B90" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C90" s="10" t="n"/>
+      <c r="C90" s="11" t="n"/>
       <c r="D90" s="7" t="inlineStr">
         <is>
           <t>MCE-A 2024</t>
@@ -6683,15 +6856,17 @@
       <c r="F90" s="6" t="n">
         <v>22540118</v>
       </c>
-      <c r="G90" s="6" t="n"/>
+      <c r="G90" s="9" t="n">
+        <v>74</v>
+      </c>
       <c r="H90" s="5" t="n"/>
-      <c r="I90" s="9" t="n">
+      <c r="I90" s="10" t="n">
         <v>45765</v>
       </c>
-      <c r="Y90" s="9" t="n">
+      <c r="Y90" s="10" t="n">
         <v>45765</v>
       </c>
-      <c r="Z90" s="9" t="n">
+      <c r="Z90" s="10" t="n">
         <v>45839</v>
       </c>
     </row>
@@ -6722,64 +6897,66 @@
       <c r="F91" s="6" t="n">
         <v>22540155</v>
       </c>
-      <c r="G91" s="6" t="n"/>
+      <c r="G91" s="9" t="n">
+        <v>-3</v>
+      </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
           <t>RIGIRO</t>
         </is>
       </c>
-      <c r="I91" s="9" t="n">
+      <c r="I91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="J91" s="9" t="n">
+      <c r="J91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="K91" s="9" t="n">
+      <c r="K91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="L91" s="9" t="n">
+      <c r="L91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="M91" s="9" t="n">
+      <c r="M91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="N91" s="9" t="n">
+      <c r="N91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="O91" s="9" t="n">
+      <c r="O91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="P91" s="9" t="n">
+      <c r="P91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="Q91" s="9" t="n">
+      <c r="Q91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="R91" s="9" t="n">
+      <c r="R91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="S91" s="9" t="n">
+      <c r="S91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="T91" s="9" t="n">
+      <c r="T91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="U91" s="9" t="n">
+      <c r="U91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="V91" s="9" t="n">
+      <c r="V91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="W91" s="9" t="n">
+      <c r="W91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="X91" s="9" t="n">
+      <c r="X91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="Y91" s="9" t="n">
+      <c r="Y91" s="10" t="n">
         <v>45842</v>
       </c>
-      <c r="Z91" s="9" t="n">
+      <c r="Z91" s="10" t="n">
         <v>45839</v>
       </c>
     </row>
